--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail0 Features.xlsx
@@ -4593,7 +4593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4604,29 +4604,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="23" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="23" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="23" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4647,115 +4645,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4772,72 +4760,66 @@
         <v>1.761698557282958e-05</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.775078273217585</v>
+        <v>0.0001145122479584008</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.7290954810418</v>
+        <v>-3.389902288616436e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.0001145122479584008</v>
+        <v>0.1083117104457501</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-3.389902288616436e-06</v>
+        <v>0.3149595777482784</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1083117104457501</v>
+        <v>0.1106621131342555</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3149595777482784</v>
+        <v>1.796787268279658</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1106621131342555</v>
+        <v>1.614640493150971</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.732971236087975</v>
+        <v>4.577610383555597</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.614640493150971</v>
+        <v>1.501421029013183e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.577610383555597</v>
+        <v>131861891.1542911</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.501421029013183e-15</v>
+        <v>8.94517666434436e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>131861891.1542911</v>
+        <v>26.10604573304698</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.94517666434436e-07</v>
+        <v>0.0001287153257190432</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>26.10604573304698</v>
+        <v>10.02040026773711</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001287153257190432</v>
+        <v>1.212010246241882</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.02040026773711</v>
+        <v>0.01292410268161109</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.212010246241882</v>
+        <v>3.097439521849658</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01292410268161109</v>
+        <v>0.9468368819354344</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.097439521849658</v>
+        <v>1.69142701665315</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9468368819354344</v>
+        <v>61</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.69142701665315</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2487731961217001</v>
       </c>
     </row>
@@ -4852,72 +4834,66 @@
         <v>1.285694772244743e-05</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-3.774405128984715</v>
+        <v>8.360492727317668e-05</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>14.72514870551614</v>
+        <v>-1.754885737530937e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.360492727317668e-05</v>
+        <v>0.108303603476534</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-1.754885737530937e-06</v>
+        <v>0.3149708963978945</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.108303603476534</v>
+        <v>0.1106660632250724</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3149708963978945</v>
+        <v>1.82077110723078</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1106660632250724</v>
+        <v>1.844050711306445</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.768777935201596</v>
+        <v>4.451956880469958</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.844050711306445</v>
+        <v>1.168402222416076e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.451956880469958</v>
+        <v>166526904.2984986</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.168402222416076e-15</v>
+        <v>7.111017690335946e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>166526904.2984986</v>
+        <v>32.40120722515056</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.111017690335946e-07</v>
+        <v>0.0001224356969871769</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>32.40120722515056</v>
+        <v>9.260470217657549</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001224356969871769</v>
+        <v>1.224917619124407</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.260470217657549</v>
+        <v>0.01049963342087008</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.224917619124407</v>
+        <v>2.979344811210775</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01049963342087008</v>
+        <v>0.9476658709426817</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.979344811210775</v>
+        <v>1.674837186154199</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9476658709426817</v>
+        <v>61</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.674837186154199</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2388192404085194</v>
       </c>
     </row>
@@ -4932,72 +4908,66 @@
         <v>9.383516843274297e-06</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-3.77320580884008</v>
+        <v>6.104343440460882e-05</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>14.71757339536957</v>
+        <v>-5.618189071248439e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.104343440460882e-05</v>
+        <v>0.1082788522839794</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-5.618189071248439e-07</v>
+        <v>0.3148939614676985</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.1082788522839794</v>
+        <v>0.1106123524854758</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3148939614676985</v>
+        <v>1.819543563403306</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1106123524854758</v>
+        <v>1.904292701458581</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.760021691272693</v>
+        <v>4.347650116799781</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.904292701458581</v>
+        <v>1.225138253096085e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.347650116799781</v>
+        <v>161530215.8612152</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.225138253096085e-15</v>
+        <v>7.329499711287944e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>161530215.8612152</v>
+        <v>31.96632033056273</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.329499711287944e-07</v>
+        <v>0.00012141687728638</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>31.96632033056273</v>
+        <v>8.23866695779374</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.00012141687728638</v>
+        <v>1.248183616389211</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.23866695779374</v>
+        <v>0.008241247432011541</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.248183616389211</v>
+        <v>3.022499089017726</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008241247432011541</v>
+        <v>0.9505714572458769</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.022499089017726</v>
+        <v>1.676442356529659</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9505714572458769</v>
+        <v>63</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.676442356529659</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2362565282017282</v>
       </c>
     </row>
@@ -5012,72 +4982,66 @@
         <v>6.849136858624645e-06</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-3.771266252059316</v>
+        <v>4.458096020530601e-05</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>14.70551046777668</v>
+        <v>3.087043363625149e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.458096020530601e-05</v>
+        <v>0.1082342547479009</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.087043363625149e-07</v>
+        <v>0.3147860534255361</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.1082342547479009</v>
+        <v>0.1105349099079963</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3147860534255361</v>
+        <v>1.816389750599909</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1105349099079963</v>
+        <v>1.907345115606837</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.7606417992142</v>
+        <v>3.998854122799287</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.907345115606837</v>
+        <v>1.44818201632754e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.998854122799287</v>
+        <v>133168418.4077797</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.44818201632754e-15</v>
+        <v>8.867752221564364e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>133168418.4077797</v>
+        <v>25.68181029964441</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.867752221564364e-07</v>
+        <v>0.0001206318201384659</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>25.68181029964441</v>
+        <v>6.984767928504509</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001206318201384659</v>
+        <v>1.474804765627638</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.984767928504509</v>
+        <v>0.005885262560171732</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.474804765627638</v>
+        <v>3.163974434556263</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005885262560171732</v>
+        <v>0.950071858049547</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.163974434556263</v>
+        <v>1.674674775552454</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.950071858049547</v>
+        <v>58</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.674674775552454</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2398831283143446</v>
       </c>
     </row>
@@ -5092,72 +5056,66 @@
         <v>5.000001288698003e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-3.768056715587918</v>
+        <v>3.256802525781399e-05</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>14.68542257945584</v>
+        <v>9.437864887989682e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.256802525781399e-05</v>
+        <v>0.1081494698028264</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>9.437864887989682e-07</v>
+        <v>0.3146150732477673</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.1081494698028264</v>
+        <v>0.1104091663141744</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3146150732477673</v>
+        <v>1.804081329822662</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1104091663141744</v>
+        <v>1.942761661804861</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.747547453783309</v>
+        <v>3.88173870229979</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.942761661804861</v>
+        <v>1.536886081984071e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.88173870229979</v>
+        <v>122860582.4543938</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.536886081984071e-15</v>
+        <v>9.534084281670724e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>122860582.4543938</v>
+        <v>23.19886926136418</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.534084281670724e-07</v>
+        <v>0.0001230284901487318</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>23.19886926136418</v>
+        <v>7.032552433894398</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001230284901487318</v>
+        <v>1.708742822241551</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.032552433894398</v>
+        <v>0.006084594660872628</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.708742822241551</v>
+        <v>3.192644013439738</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006084594660872628</v>
+        <v>0.9484949163269012</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.192644013439738</v>
+        <v>1.709154671995559</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9484949163269012</v>
+        <v>58</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.709154671995559</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2433822929973335</v>
       </c>
     </row>
@@ -5172,72 +5130,66 @@
         <v>3.650986607950554e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-3.762779814377168</v>
+        <v>2.380211388259269e-05</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>14.65212990888464</v>
+        <v>1.406984471085294e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.380211388259269e-05</v>
+        <v>0.1080086105972774</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.406984471085294e-06</v>
+        <v>0.3143341787720396</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.1080086105972774</v>
+        <v>0.1102024290048996</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3143341787720396</v>
+        <v>1.798378447375242</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1102024290048996</v>
+        <v>1.944697992714525</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.735646910846485</v>
+        <v>3.874353868605199</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.944697992714525</v>
+        <v>1.542750525545311e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.874353868605199</v>
+        <v>122153193.8915649</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.542750525545311e-15</v>
+        <v>9.584534671553311e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>122153193.8915649</v>
+        <v>23.02000197749429</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.584534671553311e-07</v>
+        <v>0.0001246973999702775</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>23.02000197749429</v>
+        <v>8.063614453960312</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001246973999702775</v>
+        <v>1.359341720783511</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.063614453960312</v>
+        <v>0.008108059135530499</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.359341720783511</v>
+        <v>3.043369758902188</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008108059135530499</v>
+        <v>0.9486217941589214</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.043369758902188</v>
+        <v>1.723685586926798</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9486217941589214</v>
+        <v>27</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.723685586926798</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2434988141244445</v>
       </c>
     </row>
@@ -5252,72 +5204,66 @@
         <v>2.667025739455565e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-3.754121162699918</v>
+        <v>1.74058148197055e-05</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>14.59676929751534</v>
+        <v>1.744727921328791e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.74058148197055e-05</v>
+        <v>0.1077956046451931</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.744727921328791e-06</v>
+        <v>0.3138657728927276</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.1077956046451931</v>
+        <v>0.1098628001757637</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3138657728927276</v>
+        <v>1.798214595149492</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1098628001757637</v>
+        <v>1.844692196606319</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.736973747713024</v>
+        <v>3.85163244397165</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.844692196606319</v>
+        <v>1.561006100815519e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.85163244397165</v>
+        <v>121099087.9841463</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.561006100815519e-15</v>
+        <v>9.67484051359587e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>121099087.9841463</v>
+        <v>22.89213747002729</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.67484051359587e-07</v>
+        <v>0.0001281029750081576</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>22.89213747002729</v>
+        <v>8.479051542667829</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001281029750081576</v>
+        <v>1.366670254171262</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.479051542667829</v>
+        <v>0.009209875645771984</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.366670254171262</v>
+        <v>2.897404748944036</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.009209875645771984</v>
+        <v>0.9498467654427686</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.897404748944036</v>
+        <v>1.690651830226495</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9498467654427686</v>
+        <v>14</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.690651830226495</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2385046281436736</v>
       </c>
     </row>
@@ -5332,72 +5278,66 @@
         <v>1.949609604379928e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-3.740090150274289</v>
+        <v>1.273870982817803e-05</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>14.50589227180431</v>
+        <v>1.990925534692042e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.273870982817803e-05</v>
+        <v>0.1074753679144906</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.990925534692042e-06</v>
+        <v>0.3130671588022149</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.1074753679144906</v>
+        <v>0.109294226395787</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3130671588022149</v>
+        <v>1.798001967799304</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.109294226395787</v>
+        <v>1.806180672423329</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.737241181296252</v>
+        <v>3.845493804516114</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.806180672423329</v>
+        <v>1.565993809786322e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.845493804516114</v>
+        <v>123671004.0447175</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.565993809786322e-15</v>
+        <v>9.485245410816252e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>123671004.0447175</v>
+        <v>23.95111932374727</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>9.485245410816252e-07</v>
+        <v>0.0001299758305827671</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>23.95111932374727</v>
+        <v>8.198825634920039</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001299758305827671</v>
+        <v>1.408130200277873</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.198825634920039</v>
+        <v>0.008737071746781785</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.408130200277873</v>
+        <v>2.917739518512971</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.008737071746781785</v>
+        <v>0.9511881184736466</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.917739518512971</v>
+        <v>1.691905735471393</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9511881184736466</v>
+        <v>14</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.691905735471393</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2367758203593825</v>
       </c>
     </row>
@@ -5412,72 +5352,66 @@
         <v>1.426862606598788e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-3.717775738004031</v>
+        <v>9.334234517339246e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>14.36046001579177</v>
+        <v>2.170338350515158e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9.334234517339246e-06</v>
+        <v>0.1069960032090033</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.170338350515158e-06</v>
+        <v>0.3117613773817666</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.1069960032090033</v>
+        <v>0.1083774223439576</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.3117613773817666</v>
+        <v>1.78340912739431</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.1083774223439576</v>
+        <v>1.751153432641167</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.71750142465833</v>
+        <v>3.883143229687024</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.751153432641167</v>
+        <v>1.53577450402543e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.883143229687024</v>
+        <v>126531994.447676</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.53577450402543e-15</v>
+        <v>9.240939195080623e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>126531994.447676</v>
+        <v>24.58828060215215</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>9.240939195080623e-07</v>
+        <v>0.0001368418453332489</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>24.58828060215215</v>
+        <v>8.294823007760508</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001368418453332489</v>
+        <v>1.463194046099086</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.294823007760508</v>
+        <v>0.009415278468295792</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.463194046099086</v>
+        <v>2.883471320791792</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.009415278468295792</v>
+        <v>0.9513682515076363</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.883471320791792</v>
+        <v>1.704922711512665</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9513682515076363</v>
+        <v>15</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.704922711512665</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2440157385542643</v>
       </c>
     </row>
@@ -5492,72 +5426,66 @@
         <v>1.046271012664086e-06</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-3.682638009376597</v>
+        <v>6.851903632074336e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>14.13001027485226</v>
+        <v>2.301018636712229e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.851903632074336e-06</v>
+        <v>0.1062315933420475</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.301018636712229e-06</v>
+        <v>0.3097541412029886</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.1062315933420475</v>
+        <v>0.1069698963093169</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3097541412029886</v>
+        <v>1.787251419385585</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.1069698963093169</v>
+        <v>1.72114532427951</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.717308787474457</v>
+        <v>3.986053982260358</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.72114532427951</v>
+        <v>1.457497844264663e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.986053982260358</v>
+        <v>135176498.6925355</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.457497844264663e-15</v>
+        <v>8.710569061237537e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>135176498.6925355</v>
+        <v>26.63240016063724</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.710569061237537e-07</v>
+        <v>0.0001555281378695335</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>26.63240016063724</v>
+        <v>9.28658638133461</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001555281378695335</v>
+        <v>1.47303763239939</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.28658638133461</v>
+        <v>0.0134128533982859</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.47303763239939</v>
+        <v>2.698256044414073</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0134128533982859</v>
+        <v>0.9528699501593937</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.698256044414073</v>
+        <v>1.693458687473087</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9528699501593937</v>
+        <v>15</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.693458687473087</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2654782873168887</v>
       </c>
     </row>
@@ -5572,72 +5500,66 @@
         <v>7.695335891786179e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-3.628079859610089</v>
+        <v>5.041634447971317e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>13.76908434138755</v>
+        <v>2.396093845170483e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.041634447971317e-06</v>
+        <v>0.1049931930603469</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.396093845170483e-06</v>
+        <v>0.3065647142345974</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.1049931930603469</v>
+        <v>0.1047469639151068</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3065647142345974</v>
+        <v>1.786681812249815</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.1047469639151068</v>
+        <v>1.740154572285565</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.715064510979072</v>
+        <v>4.214569269436238</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.740154572285565</v>
+        <v>1.303730664975015e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.214569269436238</v>
+        <v>155047328.0368522</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.303730664975015e-15</v>
+        <v>7.600727981202516e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>155047328.0368522</v>
+        <v>31.34126008032397</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>7.600727981202516e-07</v>
+        <v>0.0001679951194405967</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>31.34126008032397</v>
+        <v>9.830783254551996</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001679951194405967</v>
+        <v>1.459180919892086</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.830783254551996</v>
+        <v>0.01623577062061643</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.459180919892086</v>
+        <v>2.607359081805598</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01623577062061643</v>
+        <v>0.952994814479533</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.607359081805598</v>
+        <v>1.706157589576025</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.952994814479533</v>
+        <v>18</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.706157589576025</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2719849963735862</v>
       </c>
     </row>
@@ -5652,72 +5574,66 @@
         <v>5.688155105926015e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-3.546866868440465</v>
+        <v>3.722518511930434e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>13.23813067878019</v>
+        <v>2.465154965727594e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.722518511930434e-06</v>
+        <v>0.1031095708091247</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.465154965727594e-06</v>
+        <v>0.3015744286689313</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.1031095708091247</v>
+        <v>0.1013283889234785</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.3015744286689313</v>
+        <v>1.778424510938126</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.1013283889234785</v>
+        <v>1.681932374558959</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.707360789211065</v>
+        <v>4.515521693558056</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.681932374558959</v>
+        <v>1.063861886187606e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.515521693558056</v>
+        <v>184261521.9050395</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.063861886187606e-15</v>
+        <v>6.365513008123422e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>184261521.9050395</v>
+        <v>36.12056691310581</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.365513008123422e-07</v>
+        <v>0.0001589850869301814</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>36.12056691310581</v>
+        <v>9.481897278096763</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001589850869301814</v>
+        <v>1.475047754978477</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.481897278096763</v>
+        <v>0.01429377300272592</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.475047754978477</v>
+        <v>2.739898403393207</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01429377300272592</v>
+        <v>0.9526907032136156</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.739898403393207</v>
+        <v>1.735569130625473</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9526907032136156</v>
+        <v>18</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.735569130625473</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2706895850365653</v>
       </c>
     </row>
@@ -5732,72 +5648,66 @@
         <v>4.236254335954537e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-3.429715608688377</v>
+        <v>2.764645117982352e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>12.50105990865641</v>
+        <v>2.515283263684739e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.764645117982352e-06</v>
+        <v>0.1005179618816692</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.515283263684739e-06</v>
+        <v>0.2947553164074058</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.1005179618816692</v>
+        <v>0.09674716764527901</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2947553164074058</v>
+        <v>1.840921442972007</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.09674716764527901</v>
+        <v>1.810896385848916</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.779957222423616</v>
+        <v>3.949633136782383</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.810896385848916</v>
+        <v>1.09300843147609e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.949633136782383</v>
+        <v>177727084.5714241</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.09300843147609e-15</v>
+        <v>6.701576708913254e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>177727084.5714241</v>
+        <v>34.52476615748414</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.701576708913254e-07</v>
+        <v>0.0001592499362138099</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>34.52476615748414</v>
+        <v>9.568511684787984</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001592499362138099</v>
+        <v>1.488626918669461</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.568511684787984</v>
+        <v>0.01458035338597648</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.488626918669461</v>
+        <v>2.699228280889912</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01458035338597648</v>
+        <v>0.9573458872784589</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.699228280889912</v>
+        <v>1.630415133980093</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9573458872784589</v>
+        <v>17</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.630415133980093</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2896299391977811</v>
       </c>
     </row>
@@ -5812,72 +5722,66 @@
         <v>3.188316622041625e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-3.262303996403091</v>
+        <v>2.070194686851812e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>11.5021981595417</v>
+        <v>2.551710263856142e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.070194686851812e-06</v>
+        <v>0.09719808818140542</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.551710263856142e-06</v>
+        <v>0.2860411436411305</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.09719808818140542</v>
+        <v>0.09104680614110003</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2860411436411305</v>
+        <v>1.849522075298753</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.09104680614110003</v>
+        <v>1.687806428748323</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.788574019847671</v>
+        <v>4.26734356514053</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.687806428748323</v>
+        <v>1.062991560027877e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.26734356514053</v>
+        <v>178577887.2422274</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.062991560027877e-15</v>
+        <v>6.683155603265199e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>178577887.2422274</v>
+        <v>33.89886655481455</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>6.683155603265199e-07</v>
+        <v>0.0001452821644872598</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>33.89886655481455</v>
+        <v>8.558600047823077</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001452821644872598</v>
+        <v>1.421321995962669</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.558600047823077</v>
+        <v>0.01064186548853586</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.421321995962669</v>
+        <v>2.844666822888246</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01064186548853586</v>
+        <v>0.9579877964406055</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.844666822888246</v>
+        <v>1.639082038782215</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9579877964406055</v>
+        <v>17</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.639082038782215</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2577027709177054</v>
       </c>
     </row>
@@ -5892,72 +5796,66 @@
         <v>2.434052325670003e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-3.026930979189071</v>
+        <v>1.566509743931822e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>10.1811355966057</v>
+        <v>2.57829054921433e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.566509743931822e-06</v>
+        <v>0.09326624957263392</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.57829054921433e-06</v>
+        <v>0.275237622068974</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.09326624957263392</v>
+        <v>0.08425502946300398</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.275237622068974</v>
+        <v>1.850522398593216</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.08425502946300398</v>
+        <v>1.78849278920559</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.799286473143989</v>
+        <v>4.236587845020953</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.78849278920559</v>
+        <v>1.395937989374843e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.236587845020953</v>
+        <v>129970353.8449197</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.395937989374843e-15</v>
+        <v>9.149641729086994e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>129970353.8449197</v>
+        <v>23.58059335684707</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>9.149641729086994e-07</v>
+        <v>0.0001542268183132917</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>23.58059335684707</v>
+        <v>8.83338381701777</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001542268183132917</v>
+        <v>1.281277193828062</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.83338381701777</v>
+        <v>0.01203411345868811</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.281277193828062</v>
+        <v>2.818351193373695</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01203411345868811</v>
+        <v>0.9600999181841914</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.818351193373695</v>
+        <v>1.614904636697611</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9600999181841914</v>
+        <v>17</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.614904636697611</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2233139878193049</v>
       </c>
     </row>
@@ -5972,72 +5870,66 @@
         <v>1.893627729985843e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-2.710624067383748</v>
+        <v>1.200307078538209e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>8.526357106759251</v>
+        <v>2.597875703345282e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.200307078538209e-06</v>
+        <v>0.08904822957803991</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.597875703345282e-06</v>
+        <v>0.2621580406699041</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.08904822957803991</v>
+        <v>0.07648130063413161</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2621580406699041</v>
+        <v>1.853267780909134</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.07648130063413161</v>
+        <v>1.901921601182194</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.801764787130863</v>
+        <v>3.809220473734607</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.901921601182194</v>
+        <v>1.853234515419981e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.809220473734607</v>
+        <v>98682520.34783557</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.853234515419981e-15</v>
+        <v>1.204560319071528e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>98682520.34783557</v>
+        <v>18.0472421579402</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.204560319071528e-06</v>
+        <v>0.0001771310630638532</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>18.0472421579402</v>
+        <v>10.39098469108624</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001771310630638532</v>
+        <v>1.181493122627471</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.39098469108624</v>
+        <v>0.01912529483941805</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.181493122627471</v>
+        <v>2.649845664518657</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01912529483941805</v>
+        <v>0.9593758119664841</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.649845664518657</v>
+        <v>1.609979540370141</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9593758119664841</v>
+        <v>14</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.609979540370141</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2073388977464327</v>
       </c>
     </row>
@@ -6052,72 +5944,66 @@
         <v>1.509006551423249e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-2.318798942571734</v>
+        <v>9.334588058576056e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>6.651076683177127</v>
+        <v>2.612569118329773e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>9.334588058576056e-07</v>
+        <v>0.08485185708013206</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.612569118329773e-06</v>
+        <v>0.2474807529191038</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.08485185708013206</v>
+        <v>0.06829856105543672</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2474807529191038</v>
+        <v>1.827647197838086</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.06829856105543672</v>
+        <v>1.861609320644563</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.766877241900985</v>
+        <v>3.721623804184511</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.861609320644563</v>
+        <v>1.941501176833316e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.721623804184511</v>
+        <v>95122573.38549763</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.941501176833316e-15</v>
+        <v>1.24070155550001e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>95122573.38549763</v>
+        <v>17.56729280120678</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.24070155550001e-06</v>
+        <v>0.0001869668446632448</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>17.56729280120678</v>
+        <v>11.89044654082608</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001869668446632448</v>
+        <v>1.067407539178586</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>11.89044654082608</v>
+        <v>0.02643388085016758</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.067407539178586</v>
+        <v>2.514141895393409</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02643388085016758</v>
+        <v>0.9578654631550039</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.514141895393409</v>
+        <v>1.650954986995677</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9578654631550039</v>
+        <v>14</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.650954986995677</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2142910800247325</v>
       </c>
     </row>
@@ -6132,72 +6018,66 @@
         <v>1.237498477234703e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-1.883225218726644</v>
+        <v>7.390664610923415e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>4.805819909540724</v>
+        <v>2.623864503755807e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>7.390664610923415e-07</v>
+        <v>0.08072323381916481</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.623864503755807e-06</v>
+        <v>0.2332246161024134</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.08072323381916481</v>
+        <v>0.06079327088359669</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2332246161024134</v>
+        <v>1.845725153363373</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.06079327088359669</v>
+        <v>1.654376343962193</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.793785945543806</v>
+        <v>3.831382815651393</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.654376343962193</v>
+        <v>1.83185673618095e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.831382815651393</v>
+        <v>106001118.6466843</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.83185673618095e-15</v>
+        <v>1.122617327299102e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>106001118.6466843</v>
+        <v>20.58317672051986</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.122617327299102e-06</v>
+        <v>0.0001666742956151906</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>20.58317672051986</v>
+        <v>10.68496159776823</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001666742956151906</v>
+        <v>1.143456552596846</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.68496159776823</v>
+        <v>0.01902893837584345</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.143456552596846</v>
+        <v>2.777619761840903</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01902893837584345</v>
+        <v>0.9573131879299482</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.777619761840903</v>
+        <v>1.617940707832484</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9573131879299482</v>
+        <v>9</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.617940707832484</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2194550915731883</v>
       </c>
     </row>
@@ -6212,72 +6092,66 @@
         <v>1.046471458392823e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-1.446550049720998</v>
+        <v>5.994873540871385e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>3.218869135639075</v>
+        <v>2.632851401692434e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.994873540871385e-07</v>
+        <v>0.07793296765234273</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.632851401692434e-06</v>
+        <v>0.224600160323752</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.07793296765234273</v>
+        <v>0.05643101704525755</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.224600160323752</v>
+        <v>1.810136411049054</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.05643101704525755</v>
+        <v>1.62214998673349</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.744180370791563</v>
+        <v>4.095363654852807</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.62214998673349</v>
+        <v>1.663902758618346e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.095363654852807</v>
+        <v>116689214.9388073</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.663902758618346e-15</v>
+        <v>1.016437598460453e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>116689214.9388073</v>
+        <v>22.65632040245826</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.016437598460453e-06</v>
+        <v>0.0001503140147621</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>22.65632040245826</v>
+        <v>8.563988471310585</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001503140147621</v>
+        <v>1.310756160523844</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.563988471310585</v>
+        <v>0.01102431521933207</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.310756160523844</v>
+        <v>2.936500024431508</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01102431521933207</v>
+        <v>0.9554278744778869</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.936500024431508</v>
+        <v>1.649632664184531</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9554278744778869</v>
+        <v>9</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.649632664184531</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.22068638039959</v>
       </c>
     </row>
@@ -6292,72 +6166,66 @@
         <v>9.119528199448413e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-1.03692949219621</v>
+        <v>4.995226149687365e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.926991763959062</v>
+        <v>2.640436456021201e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.995226149687365e-07</v>
+        <v>0.07840422596083328</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.640436456021201e-06</v>
+        <v>0.226288397759189</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.07840422596083328</v>
+        <v>0.05728377839528625</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.226288397759189</v>
+        <v>1.738565094600159</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.05728377839528625</v>
+        <v>1.657430889732066</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.671175362800152</v>
+        <v>4.292618308414895</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.657430889732066</v>
+        <v>1.767371235917318e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.292618308414895</v>
+        <v>113986325.1641188</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.767371235917318e-15</v>
+        <v>9.884740182323853e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>113986325.1641188</v>
+        <v>22.96324649183884</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>9.884740182323853e-07</v>
+        <v>0.0001399312601279365</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>22.96324649183884</v>
+        <v>7.834296019075399</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001399312601279365</v>
+        <v>1.340961143018639</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>7.834296019075399</v>
+        <v>0.008588448184298917</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.340961143018639</v>
+        <v>2.972353587613455</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.008588448184298917</v>
+        <v>0.9504488670360794</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.972353587613455</v>
+        <v>1.61965270126202</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9504488670360794</v>
+        <v>10</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.61965270126202</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2262420364472876</v>
       </c>
     </row>
@@ -6372,72 +6240,66 @@
         <v>8.193052474301104e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.6640296654392859</v>
+        <v>4.262680351710209e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.8589504309265434</v>
+        <v>2.647262938328926e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.262680351710209e-07</v>
+        <v>0.07955491846041945</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.647262938328926e-06</v>
+        <v>0.2334117940992366</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.07955491846041945</v>
+        <v>0.06076641176878633</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2334117940992366</v>
+        <v>1.640321975023832</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.06076641176878633</v>
+        <v>1.458239725828678</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.554098505108312</v>
+        <v>5.698533274929854</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.458239725828678</v>
+        <v>5.489169183187699e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.698533274929854</v>
+        <v>40164640.72190234</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>5.489169183187699e-15</v>
+        <v>2.680301393668809e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>40164640.72190234</v>
+        <v>8.855118747791376</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.680301393668809e-06</v>
+        <v>0.0001467113010550724</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>8.855118747791376</v>
+        <v>7.585246032992586</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001467113010550724</v>
+        <v>1.971991595875422</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.585246032992586</v>
+        <v>0.008441175164820075</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.971991595875422</v>
+        <v>3.105449153913104</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.008441175164820075</v>
+        <v>0.9439388785924601</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.105449153913104</v>
+        <v>1.853707473218598</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9439388785924601</v>
+        <v>5</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.853707473218598</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2010115888348156</v>
       </c>
     </row>
@@ -6452,72 +6314,66 @@
         <v>7.568274663370789e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.3449877321922839</v>
+        <v>3.699990770113801e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.02058246574784395</v>
+        <v>2.65341260969649e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.699990770113801e-07</v>
+        <v>0.07608473255033306</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.65341260969649e-06</v>
+        <v>0.238076309834492</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.07608473255033306</v>
+        <v>0.06244147931785677</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.238076309834492</v>
+        <v>1.612736268909901</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.06244147931785677</v>
+        <v>1.461005301704717</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.524022506311828</v>
+        <v>4.258137228949045</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.461005301704717</v>
+        <v>9.892248808287946e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.258137228949045</v>
+        <v>22524504.9458847</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>9.892248808287946e-15</v>
+        <v>4.73526049484357e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>22524504.9458847</v>
+        <v>5.018865305393361</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.73526049484357e-06</v>
+        <v>0.0001568968434032084</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>5.018865305393361</v>
+        <v>10.54037268256577</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001568968434032084</v>
+        <v>1.792665606463593</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.54037268256577</v>
+        <v>0.01743115399530246</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.792665606463593</v>
+        <v>3.172759291704355</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01743115399530246</v>
+        <v>0.9427565172467947</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.172759291704355</v>
+        <v>1.830360019365729</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9427565172467947</v>
+        <v>5</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.830360019365729</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.1979012928059815</v>
       </c>
     </row>
@@ -6532,72 +6388,66 @@
         <v>7.132817679901374e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.1122956476431143</v>
+        <v>3.252428761227736e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.559037824918736</v>
+        <v>2.658739140037996e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.252428761227736e-07</v>
+        <v>0.06861867191945493</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.658739140037996e-06</v>
+        <v>0.2433481184364661</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.06861867191945493</v>
+        <v>0.0639056489342766</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2433481184364661</v>
+        <v>1.581529743013078</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.0639056489342766</v>
+        <v>1.451118347526634</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.488192340082674</v>
+        <v>4.056274261229613</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.451118347526634</v>
+        <v>1.090133572627349e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.056274261229613</v>
+        <v>20087279.7101175</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.090133572627349e-14</v>
+        <v>5.231735568355247e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>20087279.7101175</v>
+        <v>4.398675951018928</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>5.231735568355247e-06</v>
+        <v>0.0001146124979623057</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>4.398675951018928</v>
+        <v>9.88239136355825</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001146124979623057</v>
+        <v>1.479070846839748</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.88239136355825</v>
+        <v>0.0111932467002997</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.479070846839748</v>
+        <v>3.188885853292839</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0111932467002997</v>
+        <v>0.9401670280985966</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.188885853292839</v>
+        <v>1.89271969000941</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9401670280985966</v>
+        <v>5</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.89271969000941</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2058129972668309</v>
       </c>
     </row>
@@ -6612,72 +6462,66 @@
         <v>6.805745019388782e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.03227072099830247</v>
+        <v>2.904903510093951e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.9292058784961057</v>
+        <v>2.663208734751188e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.904903510093951e-07</v>
+        <v>0.05957690020543649</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.663208734751188e-06</v>
+        <v>0.2513545624877784</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.05957690020543649</v>
+        <v>0.06671104414564474</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.2513545624877784</v>
+        <v>1.587866528864761</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.06671104414564474</v>
+        <v>1.511165745858642</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.493252197635806</v>
+        <v>4.028019607087457</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.511165745858642</v>
+        <v>1.105480754878566e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.028019607087457</v>
+        <v>19850564.28879401</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.105480754878566e-14</v>
+        <v>5.290281394506383e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>19850564.28879401</v>
+        <v>4.356090563641076</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>5.290281394506383e-06</v>
+        <v>0.0001133275615723431</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>4.356090563641076</v>
+        <v>8.305263244463916</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001133275615723431</v>
+        <v>1.154949174000156</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.305263244463916</v>
+        <v>0.007817040269063125</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.154949174000156</v>
+        <v>3.028818000444541</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.007817040269063125</v>
+        <v>0.9396532456710154</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.028818000444541</v>
+        <v>1.881644781684457</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9396532456710154</v>
+        <v>4</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.881644781684457</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2051433709608142</v>
       </c>
     </row>
@@ -6692,72 +6536,66 @@
         <v>6.54235885031666e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.1110738878375178</v>
+        <v>2.613995542811705e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.148175887927734</v>
+        <v>2.666858427191637e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.613995542811705e-07</v>
+        <v>0.04959194674376371</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.666858427191637e-06</v>
+        <v>0.2606450732570489</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.04959194674376371</v>
+        <v>0.07037679625289037</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2606450732570489</v>
+        <v>1.582262604926191</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.07037679625289037</v>
+        <v>1.505621694722087</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.487134260262371</v>
+        <v>4.032129354126482</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.505621694722087</v>
+        <v>1.103228381252213e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.032129354126482</v>
+        <v>19507931.05890051</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.103228381252213e-14</v>
+        <v>5.346500104754888e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>19507931.05890051</v>
+        <v>4.19843902367714</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>5.346500104754888e-06</v>
+        <v>0.0001209477629530776</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>4.19843902367714</v>
+        <v>8.022515851924267</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001209477629530776</v>
+        <v>1.241781868119535</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.022515851924267</v>
+        <v>0.007784290015848383</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.241781868119535</v>
+        <v>2.983630118016999</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.007784290015848383</v>
+        <v>0.9376037084702454</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.983630118016999</v>
+        <v>1.873090341373335</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9376037084702454</v>
+        <v>4</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.873090341373335</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2007833902078997</v>
       </c>
     </row>
@@ -6772,72 +6610,66 @@
         <v>6.334206802126874e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.1408551016567332</v>
+        <v>2.321962393389505e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.236574686754935</v>
+        <v>2.669684314174492e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.321962393389505e-07</v>
+        <v>0.03782614387668779</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.669684314174492e-06</v>
+        <v>0.2684874625639839</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.03782614387668779</v>
+        <v>0.07349286655484955</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2684874625639839</v>
+        <v>1.580336393110505</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.07349286655484955</v>
+        <v>1.460291233464019</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.486001518984525</v>
+        <v>4.032963213276775</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.460291233464019</v>
+        <v>1.102772219403761e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.032963213276775</v>
+        <v>19217337.52567991</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.102772219403761e-14</v>
+        <v>5.383260301565681e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>19217337.52567991</v>
+        <v>4.072604651633227</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>5.383260301565681e-06</v>
+        <v>0.000122348554751924</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>4.072604651633227</v>
+        <v>7.326032439202279</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.000122348554751924</v>
+        <v>1.304100805248995</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.326032439202279</v>
+        <v>0.006566538854034812</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.304100805248995</v>
+        <v>3.075699192264275</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.006566538854034812</v>
+        <v>0.9392975920738568</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.075699192264275</v>
+        <v>1.898827470199831</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9392975920738568</v>
+        <v>1</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.898827470199831</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1923118919012062</v>
       </c>
     </row>
@@ -6852,72 +6684,66 @@
         <v>6.194196630172146e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.1340654212631266</v>
+        <v>2.134729376344469e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.224418102762678</v>
+        <v>2.671618693478537e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.134729376344469e-07</v>
+        <v>0.02349693798437685</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.671618693478537e-06</v>
+        <v>0.2708253455563942</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.02349693798437685</v>
+        <v>0.07386586069950035</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.2708253455563942</v>
+        <v>1.579744510865785</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.07386586069950035</v>
+        <v>1.43653545852284</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.484981036333176</v>
+        <v>4.041953155553127</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.43653545852284</v>
+        <v>1.097872195469017e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.041953155553127</v>
+        <v>19276602.10324656</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.097872195469017e-14</v>
+        <v>5.36898875138448e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>19276602.10324656</v>
+        <v>4.079554621823599</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>5.36898875138448e-06</v>
+        <v>0.0001245280385986632</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>4.079554621823599</v>
+        <v>6.832749855177152</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001245280385986632</v>
+        <v>1.660300548653927</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>6.832749855177152</v>
+        <v>0.005813774610847902</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.660300548653927</v>
+        <v>3.176504259661463</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.005813774610847902</v>
+        <v>0.9412165208724286</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.176504259661463</v>
+        <v>1.906546549204049</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9412165208724286</v>
+        <v>6</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.906546549204049</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1814469681623767</v>
       </c>
     </row>
@@ -6932,72 +6758,66 @@
         <v>6.134685665736419e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.1148871507607322</v>
+        <v>2.134729376344469e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.189572909878175</v>
+        <v>2.672551750582107e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.134729376344469e-07</v>
+        <v>0.006329374703057763</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.672551750582107e-06</v>
+        <v>0.2628037764831814</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.006329374703057763</v>
+        <v>0.06905802961095951</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.2628037764831814</v>
+        <v>1.581018697243525</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.06905802961095951</v>
+        <v>1.424621981938024</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.490362454992077</v>
+        <v>4.064681933859774</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.424621981938024</v>
+        <v>1.0856284196613e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.064681933859774</v>
+        <v>19676363.88823561</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.0856284196613e-14</v>
+        <v>5.268078296374783e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>19676363.88823561</v>
+        <v>4.203111345241298</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>5.268078296374783e-06</v>
+        <v>0.0001226108109573343</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>4.203111345241298</v>
+        <v>8.437402407210152</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001226108109573343</v>
+        <v>1.478391590116725</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.437402407210152</v>
+        <v>0.0087286341295859</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.478391590116725</v>
+        <v>3.150963011950115</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.0087286341295859</v>
+        <v>0.9413588393374909</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.150963011950115</v>
+        <v>1.856437367056318</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9413588393374909</v>
+        <v>6</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.856437367056318</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1824412253869442</v>
       </c>
     </row>
@@ -7012,72 +6832,66 @@
         <v>6.140311140237884e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.1232213105423384</v>
+        <v>2.134729376344469e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.194170974388758</v>
+        <v>2.672352604336076e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.134729376344469e-07</v>
+        <v>-0.01261980700835185</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.672352604336076e-06</v>
+        <v>0.2440188879441144</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.01261980700835185</v>
+        <v>0.05966088656701278</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.2440188879441144</v>
+        <v>1.580071878102983</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.05966088656701278</v>
+        <v>1.403186562029147</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.489622702642651</v>
+        <v>4.128461864034174</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.403186562029147</v>
+        <v>1.052344132057949e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.128461864034174</v>
+        <v>20292616.44285792</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.052344132057949e-14</v>
+        <v>5.121409794543735e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>20292616.44285792</v>
+        <v>4.333450870032101</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>5.121409794543735e-06</v>
+        <v>0.0001185009520805485</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>4.333450870032101</v>
+        <v>9.154691779184988</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001185009520805485</v>
+        <v>1.138423892734749</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.154691779184988</v>
+        <v>0.009931373008597345</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.138423892734749</v>
+        <v>2.967083132020739</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.009931373008597345</v>
+        <v>0.9418236846521831</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.967083132020739</v>
+        <v>1.87437082133143</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9418236846521831</v>
+        <v>6</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.87437082133143</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1942862113706884</v>
       </c>
     </row>
@@ -7092,72 +6906,66 @@
         <v>6.162717032049452e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.1726437666989196</v>
+        <v>2.134729376344469e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.20178481468787</v>
+        <v>2.67107600072228e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.134729376344469e-07</v>
+        <v>-0.02802689010285486</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.67107600072228e-06</v>
+        <v>0.2313785376793009</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.02802689010285486</v>
+        <v>0.05429980529033882</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.2313785376793009</v>
+        <v>1.583739041344353</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.05429980529033882</v>
+        <v>1.386433967880281</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.492716325742964</v>
+        <v>4.263971761274932</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.386433967880281</v>
+        <v>9.865195553300386e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.263971761274932</v>
+        <v>21740660.42611604</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>9.865195553300386e-15</v>
+        <v>4.801479882238397e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>21740660.42611604</v>
+        <v>4.66284698451128</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.801479882238397e-06</v>
+        <v>0.0001214159293543699</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>4.66284698451128</v>
+        <v>8.366038569318809</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001214159293543699</v>
+        <v>1.1685326004609</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.366038569318809</v>
+        <v>0.008497973908171608</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.1685326004609</v>
+        <v>3.000401554656432</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.008497973908171608</v>
+        <v>0.9404130706990428</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.000401554656432</v>
+        <v>1.895436155869668</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9404130706990428</v>
+        <v>6</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.895436155869668</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.1911807492069144</v>
       </c>
     </row>
@@ -7172,72 +6980,66 @@
         <v>6.172915031549376e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.2369015517661723</v>
+        <v>2.134729376344469e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.179151244335363</v>
+        <v>2.668969987653655e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.134729376344469e-07</v>
+        <v>-0.03980387497557946</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.668969987653655e-06</v>
+        <v>0.2256899362978539</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.03980387497557946</v>
+        <v>0.05250704448258815</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2256899362978539</v>
+        <v>1.586545428221769</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.05250704448258815</v>
+        <v>1.396744849960083</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.49768117671753</v>
+        <v>4.462285578807736</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.396744849960083</v>
+        <v>9.007818279433376e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.462285578807736</v>
+        <v>24077720.16742189</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>9.007818279433376e-15</v>
+        <v>4.34939013308367e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>24077720.16742189</v>
+        <v>5.222162018948779</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>4.34939013308367e-06</v>
+        <v>0.0001243186615631136</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>5.222162018948779</v>
+        <v>7.626818475387499</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001243186615631136</v>
+        <v>1.269422514976707</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.626818475387499</v>
+        <v>0.007231412667546863</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.269422514976707</v>
+        <v>3.056428496370419</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007231412667546863</v>
+        <v>0.940804409410282</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.056428496370419</v>
+        <v>1.875202260948577</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.940804409410282</v>
+        <v>6</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.875202260948577</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.1868742022574667</v>
       </c>
     </row>
@@ -7252,72 +7054,66 @@
         <v>6.163742864056484e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.2901640882904332</v>
+        <v>2.134729376344469e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.13208449420906</v>
+        <v>2.666199754095053e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.134729376344469e-07</v>
+        <v>-0.04980323500875072</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.666199754095053e-06</v>
+        <v>0.222776503225089</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.04980323500875072</v>
+        <v>0.05209954846138295</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.222776503225089</v>
+        <v>1.598265946731155</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.05209954846138295</v>
+        <v>1.450801805200567</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.51287066705937</v>
+        <v>4.525625852023699</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.450801805200567</v>
+        <v>8.757437469711799e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.525625852023699</v>
+        <v>24592250.60838271</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>8.757437469711799e-15</v>
+        <v>4.265479147190207e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>24592250.60838271</v>
+        <v>5.296312436305977</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>4.265479147190207e-06</v>
+        <v>0.0001311263104887559</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>5.296312436305977</v>
+        <v>7.436919819836809</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001311263104887559</v>
+        <v>1.37501170193012</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>7.436919819836809</v>
+        <v>0.007252304661545211</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.37501170193012</v>
+        <v>3.061210481865256</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.007252304661545211</v>
+        <v>0.9419934238806974</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.061210481865256</v>
+        <v>1.880074559910826</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9419934238806974</v>
+        <v>6</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.880074559910826</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1775304339795666</v>
       </c>
     </row>
@@ -7332,72 +7128,66 @@
         <v>6.127051451044387e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.3114158818944429</v>
+        <v>2.187136904787629e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.085959537314666</v>
+        <v>2.662860724132223e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.187136904787629e-07</v>
+        <v>-0.05831077957535868</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.662860724132223e-06</v>
+        <v>0.221283179202777</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05831077957535868</v>
+        <v>0.05236240749227853</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.221283179202777</v>
+        <v>1.591487049496222</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.05236240749227853</v>
+        <v>1.423827444665187</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.506005466758413</v>
+        <v>4.478926538556012</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.423827444665187</v>
+        <v>8.941007505037872e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.478926538556012</v>
+        <v>22816531.62809596</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>8.941007505037872e-15</v>
+        <v>4.508094533559012e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>22816531.62809596</v>
+        <v>4.654635894085063</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>4.508094533559012e-06</v>
+        <v>0.0001509616140994033</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>4.654635894085063</v>
+        <v>8.544127748701122</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001509616140994033</v>
+        <v>1.377465645278712</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.544127748701122</v>
+        <v>0.01102051771482205</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.377465645278712</v>
+        <v>2.942690220160088</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01102051771482205</v>
+        <v>0.9425753577172274</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.942690220160088</v>
+        <v>1.912025869161802</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9425753577172274</v>
+        <v>6</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.912025869161802</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1624373637813539</v>
       </c>
     </row>
@@ -7412,72 +7202,66 @@
         <v>6.068000077904336e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.294867275500413</v>
+        <v>2.284755188949995e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.067527659442072</v>
+        <v>2.659148151295673e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.284755188949995e-07</v>
+        <v>-0.06275691417921017</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.659148151295673e-06</v>
+        <v>0.2230581390345339</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.06275691417921017</v>
+        <v>0.05369253796063043</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.2230581390345339</v>
+        <v>1.614573694342895</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.05369253796063043</v>
+        <v>1.369742017170062</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.531581419132452</v>
+        <v>4.609526080226898</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.369742017170062</v>
+        <v>8.441541991881455e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.609526080226898</v>
+        <v>24191103.78308774</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>8.441541991881455e-15</v>
+        <v>4.282022513086265e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>24191103.78308774</v>
+        <v>4.940070587241801</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>4.282022513086265e-06</v>
+        <v>0.000189921982208184</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>4.940070587241801</v>
+        <v>12.40729414350104</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.000189921982208184</v>
+        <v>1.041263506648485</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>12.40729414350104</v>
+        <v>0.02923676998020733</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.041263506648485</v>
+        <v>2.476715559151456</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.02923676998020733</v>
+        <v>0.9446073469298292</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.476715559151456</v>
+        <v>1.873118469386142</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9446073469298292</v>
+        <v>6</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.873118469386142</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1589905654627671</v>
       </c>
     </row>
@@ -7492,72 +7276,66 @@
         <v>6.012416749715555e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2573976888132442</v>
+        <v>2.314433469616728e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.060636478251173</v>
+        <v>2.65530568415197e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.314433469616728e-07</v>
+        <v>-0.06416316120680676</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.65530568415197e-06</v>
+        <v>0.225241439835521</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.06416316120680676</v>
+        <v>0.05484954534453633</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.225241439835521</v>
+        <v>1.688441008016302</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.05484954534453633</v>
+        <v>1.487014643714106</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.610781363118977</v>
+        <v>3.864090689888737</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.487014643714106</v>
+        <v>7.441938027189722e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.864090689888737</v>
+        <v>25860186.71731847</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>7.441938027189722e-15</v>
+        <v>4.201375524191094e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>25860186.71731847</v>
+        <v>4.976790526729313</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>4.201375524191094e-06</v>
+        <v>0.0002533373336872642</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>4.976790526729313</v>
+        <v>13.38856592327434</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0002533373336872642</v>
+        <v>1.099445560589466</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>13.38856592327434</v>
+        <v>0.04541165377363859</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.099445560589466</v>
+        <v>2.238575778310827</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.04541165377363859</v>
+        <v>0.9509462182986719</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.238575778310827</v>
+        <v>1.84352729740722</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9509462182986719</v>
+        <v>5</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.84352729740722</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1498251368319356</v>
       </c>
     </row>
@@ -7572,72 +7350,66 @@
         <v>5.973256432426702e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.2154359870112608</v>
+        <v>2.280561079677729e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.046203057789568</v>
+        <v>2.651467395608246e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.280561079677729e-07</v>
+        <v>-0.06363783123854361</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.651467395608246e-06</v>
+        <v>0.2265408728702542</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.06363783123854361</v>
+        <v>0.05536921961936316</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.2265408728702542</v>
+        <v>1.782490553247008</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.05536921961936316</v>
+        <v>1.387892971637578</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.721380835873137</v>
+        <v>4.523278876349839</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.387892971637578</v>
+        <v>5.43092670656372e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.523278876349839</v>
+        <v>31171136.61341695</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>5.43092670656372e-15</v>
+        <v>3.754405416184799e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>31171136.61341695</v>
+        <v>5.276904309644705</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>3.754405416184799e-06</v>
+        <v>0.0002734265941769925</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>5.276904309644705</v>
+        <v>11.50484700148478</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0002734265941769925</v>
+        <v>1.422725144877646</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>11.50484700148478</v>
+        <v>0.03619115538311694</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.422725144877646</v>
+        <v>2.413843594415937</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.03619115538311694</v>
+        <v>0.9529305784694598</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.413843594415937</v>
+        <v>1.748149708950121</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9529305784694598</v>
+        <v>5</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.748149708950121</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1801796669912857</v>
       </c>
     </row>
@@ -8014,7 +7786,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.368413629516662</v>
+        <v>1.387322398744793</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.231390911995506</v>
@@ -8103,7 +7875,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.427514521689779</v>
+        <v>1.445912235297934</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.09105434242043</v>
@@ -8192,7 +7964,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.444118507529944</v>
+        <v>1.459764514652554</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.167891672657877</v>
@@ -8281,7 +8053,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.451407765416801</v>
+        <v>1.46566030698487</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.132193736278006</v>
@@ -8370,7 +8142,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.466765023935584</v>
+        <v>1.480878104204323</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.132214417206609</v>
@@ -8459,7 +8231,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.455805708436221</v>
+        <v>1.469279543495702</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.134211727148836</v>
@@ -8548,7 +8320,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.45525611150474</v>
+        <v>1.464881465043698</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.089852760978396</v>
@@ -8637,7 +8409,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.507332135196065</v>
+        <v>1.513340262745843</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.958588681753664</v>
@@ -8726,7 +8498,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.553471785625996</v>
+        <v>1.556668345639886</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.229423039741648</v>
@@ -8815,7 +8587,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.547155931206699</v>
+        <v>1.553396490352635</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.287271350287283</v>
@@ -8904,7 +8676,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.531737356505287</v>
+        <v>1.537953985531431</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.282065716123782</v>
@@ -8993,7 +8765,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.626786795526325</v>
+        <v>1.621352065411916</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.473785577019456</v>
@@ -9082,7 +8854,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.624848066065708</v>
+        <v>1.626060160032655</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.431927915839768</v>
@@ -9171,7 +8943,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.633376716630305</v>
+        <v>1.637621584468797</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.475428219849222</v>
@@ -9260,7 +9032,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.640557218945617</v>
+        <v>1.643297137641385</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.220709802875335</v>
@@ -9349,7 +9121,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.724240855268951</v>
+        <v>1.714957128164338</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.559526176711209</v>
@@ -9438,7 +9210,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.721883295305689</v>
+        <v>1.717233064249001</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.64467405484904</v>
@@ -9527,7 +9299,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.652267258876976</v>
+        <v>1.666055929206636</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.458565473256742</v>
@@ -9616,7 +9388,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.64950498322897</v>
+        <v>1.665768243575857</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.400694211582644</v>
@@ -9705,7 +9477,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.688332402007263</v>
+        <v>1.697058857678512</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.487748114564985</v>
@@ -9794,7 +9566,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.638068514839961</v>
+        <v>1.653465429641604</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.29419094829773</v>
@@ -9883,7 +9655,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.635143484503319</v>
+        <v>1.656634704545467</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.29327776613412</v>
@@ -9972,7 +9744,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.627098688405052</v>
+        <v>1.648843747919643</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.333877093766207</v>
@@ -10061,7 +9833,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.590049602332902</v>
+        <v>1.613065114468634</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.376117761497145</v>
@@ -10150,7 +9922,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.597499168384987</v>
+        <v>1.61944540477672</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.200800923311561</v>
@@ -10239,7 +10011,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.61756922081197</v>
+        <v>1.638340658144076</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.283421810320017</v>
@@ -10328,7 +10100,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.604763889181016</v>
+        <v>1.61977841590546</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.330257932339465</v>
@@ -10417,7 +10189,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.580112615375528</v>
+        <v>1.599664658588893</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.338576200393854</v>
@@ -10506,7 +10278,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574424398794939</v>
+        <v>1.591558794468654</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.285774581644016</v>
@@ -10595,7 +10367,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.571142938703856</v>
+        <v>1.586436649405978</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.309346962106109</v>
@@ -10684,7 +10456,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.559897107278812</v>
+        <v>1.575028188992211</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.234268501029964</v>
@@ -10773,7 +10545,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.533396210328393</v>
+        <v>1.545339585639289</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.163712746780322</v>
@@ -10862,7 +10634,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.556234483880411</v>
+        <v>1.55209770766077</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.269403375923521</v>
@@ -10951,7 +10723,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.529255834083694</v>
+        <v>1.529322806510787</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.317263942835867</v>
@@ -11040,7 +10812,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.528811611647092</v>
+        <v>1.527635806428174</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.389562301645907</v>
@@ -11129,7 +10901,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.568268348867297</v>
+        <v>1.560217604707827</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.318336146636008</v>
@@ -11218,7 +10990,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.53387445986354</v>
+        <v>1.526632564961549</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.412698212742916</v>
@@ -11307,7 +11079,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.538698386758448</v>
+        <v>1.529830036327471</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.274261047917439</v>
@@ -11396,7 +11168,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.563943027980488</v>
+        <v>1.546362847126192</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.248318762262213</v>
@@ -11485,7 +11257,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.557350751256458</v>
+        <v>1.539587865340357</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.279774362298504</v>
@@ -11574,7 +11346,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.550192220679838</v>
+        <v>1.531793184887895</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.302745183219163</v>
@@ -11663,7 +11435,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.545229823188887</v>
+        <v>1.52553657685967</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.391832120300067</v>
@@ -11752,7 +11524,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.549005446605142</v>
+        <v>1.527184708706846</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.24096275056824</v>
@@ -11841,7 +11613,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.534336635226869</v>
+        <v>1.514284507448293</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.158265351179958</v>
@@ -11930,7 +11702,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.474124029605585</v>
+        <v>1.454797780466328</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.226815066023985</v>
@@ -12019,7 +11791,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.472829295020684</v>
+        <v>1.459630615899151</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.294107195163042</v>
@@ -12108,7 +11880,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.418544250461865</v>
+        <v>1.414286501546777</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.182148437171006</v>
@@ -12197,7 +11969,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.409002613304194</v>
+        <v>1.413345197743484</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.155614581814882</v>
@@ -12286,7 +12058,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.375421026859676</v>
+        <v>1.384232266289601</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.251635255820169</v>
@@ -12375,7 +12147,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.357165757280909</v>
+        <v>1.372598603861406</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.258224840361728</v>
@@ -12464,7 +12236,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.365837728647059</v>
+        <v>1.382841802832466</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.310455091202962</v>
@@ -12553,7 +12325,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.389034412223898</v>
+        <v>1.409066147580285</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.307406780481522</v>
@@ -12642,7 +12414,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.370202405593811</v>
+        <v>1.392800727886808</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.263413738178588</v>
@@ -12731,7 +12503,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.337439191821995</v>
+        <v>1.367974160100187</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.322347271080224</v>
@@ -12820,7 +12592,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.31010838315363</v>
+        <v>1.331602242983642</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.390416717657762</v>
@@ -12909,7 +12681,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.309235517179835</v>
+        <v>1.338011596984713</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.299492200722716</v>
@@ -12998,7 +12770,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.308659333920786</v>
+        <v>1.338294563204816</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.438689539274243</v>
@@ -13087,7 +12859,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.315588900181241</v>
+        <v>1.349855362130856</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.425194944460431</v>
@@ -13176,7 +12948,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.28834199922108</v>
+        <v>1.321904884598157</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.16481141243352</v>
@@ -13265,7 +13037,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.308961195691901</v>
+        <v>1.346906100193607</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.384334091915727</v>
@@ -13354,7 +13126,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.303568310588595</v>
+        <v>1.34124610457169</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.180331441514753</v>
@@ -13443,7 +13215,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.329767722136552</v>
+        <v>1.370182889061562</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.309568561827853</v>
@@ -13532,7 +13304,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.347607978279084</v>
+        <v>1.387201597056021</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.196896605305201</v>
@@ -13621,7 +13393,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.366919717294533</v>
+        <v>1.402012393184994</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.922921489658056</v>
@@ -13710,7 +13482,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.372456895414375</v>
+        <v>1.410855390094158</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.178946269754628</v>
@@ -13799,7 +13571,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.365721007999878</v>
+        <v>1.404427768552577</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.171041830631414</v>
@@ -13888,7 +13660,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.361672522078801</v>
+        <v>1.401186797157641</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.151925160392542</v>
@@ -13977,7 +13749,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.398287971301788</v>
+        <v>1.436496018278981</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.131316047696854</v>
@@ -14066,7 +13838,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.39673155838125</v>
+        <v>1.428899449735082</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.001221545454708</v>
@@ -14155,7 +13927,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.46942486640635</v>
+        <v>1.501542316695551</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.074823598571161</v>
@@ -14244,7 +14016,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.441598020224113</v>
+        <v>1.474174559360648</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.973092929372686</v>
@@ -14333,7 +14105,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.477582390916254</v>
+        <v>1.505925560146565</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.892834240328171</v>
@@ -14422,7 +14194,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.502033863466727</v>
+        <v>1.522085047411022</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.948914776876205</v>
@@ -14511,7 +14283,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.521045554424092</v>
+        <v>1.544570550695025</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.214751712628721</v>
@@ -14600,7 +14372,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.51385136860768</v>
+        <v>1.537553517910887</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.087828740846954</v>
@@ -14689,7 +14461,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.461367014222907</v>
+        <v>1.492164000789025</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.886438322668997</v>
@@ -14778,7 +14550,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.462432730572369</v>
+        <v>1.497160395272033</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.884367018252754</v>
@@ -14867,7 +14639,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.462850273809977</v>
+        <v>1.498597841070135</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.879737255038529</v>
@@ -14956,7 +14728,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.490753699728392</v>
+        <v>1.530284147561825</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.873270075018713</v>
@@ -15045,7 +14817,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.474563203716611</v>
+        <v>1.514775111634267</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.901647806733664</v>
@@ -15134,7 +14906,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.453212544709964</v>
+        <v>1.494336345127761</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.91779455790599</v>
@@ -15420,7 +15192,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.463806132234089</v>
+        <v>1.477499820419366</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.259325971096639</v>
@@ -15509,7 +15281,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.471089387499537</v>
+        <v>1.48600289276046</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.17992745136036</v>
@@ -15598,7 +15370,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.465482747759048</v>
+        <v>1.484237064500551</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.194354883479291</v>
@@ -15687,7 +15459,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.476143370704089</v>
+        <v>1.50062907673728</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.2506624661639</v>
@@ -15776,7 +15548,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.493874259431405</v>
+        <v>1.521947745830282</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.227977086503667</v>
@@ -15865,7 +15637,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.49543601052639</v>
+        <v>1.522701908782053</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.226213289123378</v>
@@ -15954,7 +15726,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.48979746353342</v>
+        <v>1.514468706041854</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.168781646310851</v>
@@ -16043,7 +15815,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.520660562493226</v>
+        <v>1.540777008695837</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.013127841879047</v>
@@ -16132,7 +15904,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.574518498216779</v>
+        <v>1.592830029433264</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.341028455493157</v>
@@ -16221,7 +15993,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.585989094159286</v>
+        <v>1.600871489431032</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.460707254039113</v>
@@ -16310,7 +16082,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.58704118548898</v>
+        <v>1.598934721138171</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.446893619050434</v>
@@ -16399,7 +16171,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.627273857101249</v>
+        <v>1.632470717513014</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.417376219052127</v>
@@ -16488,7 +16260,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.629925681091631</v>
+        <v>1.634888115813193</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.414606219929889</v>
@@ -16577,7 +16349,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.629909965363615</v>
+        <v>1.636041332320469</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.421742670896728</v>
@@ -16666,7 +16438,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.639392838613061</v>
+        <v>1.635483678413665</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.353471298313013</v>
@@ -16755,7 +16527,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.688350920422039</v>
+        <v>1.674859217249699</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.149877709677003</v>
@@ -16844,7 +16616,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.728138552557134</v>
+        <v>1.70957413045592</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.16585985708791</v>
@@ -16933,7 +16705,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.748083693123252</v>
+        <v>1.724564099386432</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.375420199508711</v>
@@ -17022,7 +16794,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.741770846853427</v>
+        <v>1.710310406914089</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.817915963549006</v>
@@ -17111,7 +16883,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.736689636268781</v>
+        <v>1.691357821082234</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.28819329360084</v>
@@ -17200,7 +16972,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.719471971911669</v>
+        <v>1.674903408446123</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.193155992364678</v>
@@ -17289,7 +17061,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.706376182737962</v>
+        <v>1.667664627561132</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.951837912506663</v>
@@ -17378,7 +17150,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.663434248613628</v>
+        <v>1.632786575458269</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.931762064456189</v>
@@ -17467,7 +17239,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.631714824187629</v>
+        <v>1.604665402709826</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.135650974951286</v>
@@ -17556,7 +17328,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.617324222549175</v>
+        <v>1.591406995705451</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.059638362806632</v>
@@ -17645,7 +17417,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.621598510207671</v>
+        <v>1.593620333569479</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.990713989877069</v>
@@ -17734,7 +17506,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.619500633046547</v>
+        <v>1.591984379783165</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.024301651064215</v>
@@ -17823,7 +17595,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.607686525008718</v>
+        <v>1.578716029367639</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.96401225318507</v>
@@ -17912,7 +17684,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.601209096386183</v>
+        <v>1.573658617663848</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.972111734168648</v>
@@ -18001,7 +17773,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.594804768235677</v>
+        <v>1.566584466441068</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.050692370989878</v>
@@ -18090,7 +17862,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.574869350604404</v>
+        <v>1.546967726293467</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.938772064844558</v>
@@ -18179,7 +17951,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.544528367631311</v>
+        <v>1.514929470920781</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.59704939637967</v>
@@ -18268,7 +18040,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.529669875361786</v>
+        <v>1.484952613912706</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.56869926362522</v>
@@ -18357,7 +18129,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.523993653099656</v>
+        <v>1.484403719101464</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.691087045240236</v>
@@ -18446,7 +18218,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.507520641035617</v>
+        <v>1.474161759354765</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.780342817600643</v>
@@ -18535,7 +18307,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.512895912287431</v>
+        <v>1.47758598305781</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.610994950992999</v>
@@ -18624,7 +18396,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.51794500074149</v>
+        <v>1.476501982821933</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.548346492749349</v>
@@ -18713,7 +18485,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.53130266986442</v>
+        <v>1.487576101854724</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.848018267180447</v>
@@ -18802,7 +18574,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.555933478078411</v>
+        <v>1.504209104946691</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.488567989472027</v>
@@ -18891,7 +18663,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.56184514118755</v>
+        <v>1.506474537911771</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.58490723011659</v>
@@ -18980,7 +18752,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.565866650517027</v>
+        <v>1.508241780488426</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.588402282750187</v>
@@ -19069,7 +18841,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.58565892434545</v>
+        <v>1.527567540535634</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.56559390826561</v>
@@ -19158,7 +18930,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.598346042860741</v>
+        <v>1.542387314644042</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.575253855660048</v>
@@ -19247,7 +19019,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.604672784273635</v>
+        <v>1.549230109345555</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.812424121434554</v>
@@ -19336,7 +19108,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.625977259532305</v>
+        <v>1.569091940820211</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.53205436071973</v>
@@ -19425,7 +19197,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.693509245169286</v>
+        <v>1.628038619721425</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.385125253375031</v>
@@ -19514,7 +19286,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.706638893540695</v>
+        <v>1.651282299541898</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.299701002701359</v>
@@ -19603,7 +19375,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.714841814736356</v>
+        <v>1.670283097611</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.258751447171861</v>
@@ -19692,7 +19464,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.713166075697869</v>
+        <v>1.666869920105304</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.254505483541895</v>
@@ -19781,7 +19553,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.725902444340864</v>
+        <v>1.675367753105554</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.250907875042214</v>
@@ -19870,7 +19642,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.733217871749843</v>
+        <v>1.676989339235781</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.265396493669356</v>
@@ -19959,7 +19731,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.740098923283156</v>
+        <v>1.68778810448686</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.279992421428042</v>
@@ -20048,7 +19820,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.735171899449918</v>
+        <v>1.683156908430135</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.269722174985096</v>
@@ -20137,7 +19909,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.716917333026458</v>
+        <v>1.670615435656853</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.259887260301059</v>
@@ -20226,7 +19998,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.677069490872093</v>
+        <v>1.638279572115598</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.272497444497984</v>
@@ -20315,7 +20087,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.66065579708102</v>
+        <v>1.627950970715932</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.254164135122713</v>
@@ -20404,7 +20176,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.637911778790193</v>
+        <v>1.601723789264936</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.242787298361541</v>
@@ -20493,7 +20265,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.625322164436813</v>
+        <v>1.582779870082849</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.183210076660664</v>
@@ -20582,7 +20354,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.598790090377471</v>
+        <v>1.558095457271466</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.428998811030259</v>
@@ -20671,7 +20443,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.582281050951611</v>
+        <v>1.539573943189349</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.19210210057979</v>
@@ -20760,7 +20532,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.532686257846172</v>
+        <v>1.491665835997332</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.564174144566902</v>
@@ -20849,7 +20621,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.505352830228161</v>
+        <v>1.453481635192683</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.47418438093044</v>
@@ -20938,7 +20710,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.505222920742629</v>
+        <v>1.452533175241095</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.511758198035739</v>
@@ -21027,7 +20799,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.499466040637446</v>
+        <v>1.442782503849039</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.435060108428665</v>
@@ -21116,7 +20888,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.498830751174452</v>
+        <v>1.446563012829984</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.669163238273852</v>
@@ -21205,7 +20977,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.496826041341156</v>
+        <v>1.446601797476467</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.560764804675596</v>
@@ -21294,7 +21066,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.491065320495907</v>
+        <v>1.440479385592714</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.627034433061533</v>
@@ -21383,7 +21155,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.492723222475642</v>
+        <v>1.445918285123285</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.526081127997043</v>
@@ -21472,7 +21244,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.501730600011511</v>
+        <v>1.452666821938411</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.519301808794788</v>
@@ -21561,7 +21333,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.560217183742019</v>
+        <v>1.499928384831068</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.306450844635913</v>
@@ -21650,7 +21422,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.551307524595123</v>
+        <v>1.495902699234752</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.58472429141796</v>
@@ -21739,7 +21511,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.570053442253837</v>
+        <v>1.518486925502143</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.340730993382472</v>
@@ -21828,7 +21600,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.577522606118037</v>
+        <v>1.520165828111417</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.456161604991997</v>
@@ -21917,7 +21689,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.561650522704553</v>
+        <v>1.516882952837351</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.545504094934794</v>
@@ -22006,7 +21778,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.560117040701689</v>
+        <v>1.514478516778046</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.494940692498993</v>
@@ -22095,7 +21867,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.483359824890203</v>
+        <v>1.453029051623249</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.111697583424269</v>
@@ -22184,7 +21956,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.479643779906497</v>
+        <v>1.446563003026697</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.019967439180486</v>
@@ -22273,7 +22045,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.47911154768404</v>
+        <v>1.4471273309839</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.049423903622262</v>
@@ -22362,7 +22134,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.481238012365104</v>
+        <v>1.449566258313449</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.0216441826004</v>
@@ -22451,7 +22223,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.486416291510446</v>
+        <v>1.449556436331568</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.030834653277089</v>
@@ -22540,7 +22312,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.487457926502764</v>
+        <v>1.449617747204798</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.021367969447694</v>
@@ -22826,7 +22598,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.538446571046076</v>
+        <v>1.547228331391133</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.284775498726889</v>
@@ -22915,7 +22687,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.554427162809465</v>
+        <v>1.56310381325157</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.204528981084014</v>
@@ -23004,7 +22776,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.555552432412529</v>
+        <v>1.561015762028879</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.243910734678225</v>
@@ -23093,7 +22865,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.550869899376797</v>
+        <v>1.551785587271532</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.2262742356925</v>
@@ -23182,7 +22954,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.567647826971076</v>
+        <v>1.565459289459699</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.290084617544123</v>
@@ -23271,7 +23043,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.575128138051456</v>
+        <v>1.570646274954007</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.281541081813361</v>
@@ -23360,7 +23132,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.592329869657126</v>
+        <v>1.581367768777913</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.327181150713787</v>
@@ -23449,7 +23221,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.621663507270861</v>
+        <v>1.601247369105874</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.035228423717136</v>
@@ -23538,7 +23310,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.681308402493396</v>
+        <v>1.647864609867027</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.48781257261432</v>
@@ -23627,7 +23399,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.679438803521726</v>
+        <v>1.644910055548778</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.477735733620326</v>
@@ -23716,7 +23488,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.679333994701717</v>
+        <v>1.642790047888904</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.640190164422235</v>
@@ -23805,7 +23577,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.722989602235654</v>
+        <v>1.678744820058254</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.519869008985809</v>
@@ -23894,7 +23666,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.727556900980564</v>
+        <v>1.683513088364229</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.54494126290644</v>
@@ -23983,7 +23755,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.731869053481275</v>
+        <v>1.690469703343263</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.392553466529787</v>
@@ -24072,7 +23844,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.737222465451778</v>
+        <v>1.68502584731497</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.200931531070089</v>
@@ -24161,7 +23933,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.787198560116115</v>
+        <v>1.727140132919678</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.268200391659803</v>
@@ -24250,7 +24022,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.795697856419492</v>
+        <v>1.738380297619606</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.793537160712142</v>
@@ -24339,7 +24111,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.786671527298717</v>
+        <v>1.731900341037607</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.71005315712415</v>
@@ -24428,7 +24200,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.78907615446772</v>
+        <v>1.742304530823154</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.413496520876019</v>
@@ -24517,7 +24289,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.78208966957838</v>
+        <v>1.733050627543205</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.312366753409983</v>
@@ -24606,7 +24378,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.781312040397935</v>
+        <v>1.7332549885526</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.713281382753645</v>
@@ -24695,7 +24467,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.787868969279557</v>
+        <v>1.741707719971076</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.150736965262959</v>
@@ -24784,7 +24556,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.792576647889906</v>
+        <v>1.74583846396723</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.580167513553899</v>
@@ -24873,7 +24645,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.784492248436576</v>
+        <v>1.738352865211757</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.596734348370366</v>
@@ -24962,7 +24734,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.777491973543366</v>
+        <v>1.730208156133206</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.561980824675866</v>
@@ -25051,7 +24823,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.768896816011255</v>
+        <v>1.718518453874963</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.249382030152097</v>
@@ -25140,7 +24912,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.76287414160526</v>
+        <v>1.704093588569873</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.428145855615232</v>
@@ -25229,7 +25001,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.755537790472197</v>
+        <v>1.691725315323634</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.405666633172229</v>
@@ -25318,7 +25090,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.751296210211933</v>
+        <v>1.685811207687488</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.311755112274095</v>
@@ -25407,7 +25179,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.749376059278393</v>
+        <v>1.685486591396025</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.53607108022289</v>
@@ -25496,7 +25268,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.760183235588125</v>
+        <v>1.689455904923821</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.638416532413566</v>
@@ -25585,7 +25357,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.744947634371346</v>
+        <v>1.665812269310495</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.192628074012894</v>
@@ -25674,7 +25446,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.743077744164423</v>
+        <v>1.658724932455676</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.957061947439012</v>
@@ -25763,7 +25535,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.734994513106744</v>
+        <v>1.650267517333302</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.15014682039374</v>
@@ -25852,7 +25624,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.733176508869757</v>
+        <v>1.652512130314451</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.961288848415607</v>
@@ -25941,7 +25713,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.72776117488343</v>
+        <v>1.644087093681113</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.851860538702742</v>
@@ -26030,7 +25802,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.719658715497465</v>
+        <v>1.633706867739532</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.684578413810133</v>
@@ -26119,7 +25891,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.72647216373238</v>
+        <v>1.641056104653408</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.035165574138342</v>
@@ -26208,7 +25980,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.722968620283117</v>
+        <v>1.628020287282612</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.887340337174793</v>
@@ -26297,7 +26069,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.724250893017815</v>
+        <v>1.630041323955744</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.750716622498076</v>
@@ -26386,7 +26158,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.735538120130604</v>
+        <v>1.639689067115639</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.409359443845311</v>
@@ -26475,7 +26247,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.748964947005425</v>
+        <v>1.654473265788986</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.938857668949253</v>
@@ -26564,7 +26336,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.739853403693639</v>
+        <v>1.648289893502682</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.918373888386256</v>
@@ -26653,7 +26425,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.728572701154846</v>
+        <v>1.640542365438253</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.248926180191573</v>
@@ -26742,7 +26514,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.728325138907713</v>
+        <v>1.634187292360646</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.890311038567577</v>
@@ -26831,7 +26603,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.771271321871839</v>
+        <v>1.682081361954741</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.430716481896182</v>
@@ -26920,7 +26692,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.768123618130494</v>
+        <v>1.698964934765344</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.532717764781044</v>
@@ -27009,7 +26781,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.772273906650996</v>
+        <v>1.704161723829985</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.591430250439761</v>
@@ -27098,7 +26870,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.77934974521838</v>
+        <v>1.713689494603158</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.499827601008309</v>
@@ -27187,7 +26959,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.774707096476961</v>
+        <v>1.706472483923297</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.449693933690239</v>
@@ -27276,7 +27048,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.764008438388548</v>
+        <v>1.697502592553654</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.469870164305472</v>
@@ -27365,7 +27137,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.761636876898259</v>
+        <v>1.692016084943836</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.425396730940756</v>
@@ -27454,7 +27226,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.761347629758904</v>
+        <v>1.69086181994206</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.465612191845339</v>
@@ -27543,7 +27315,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.767018455027799</v>
+        <v>1.702287169058821</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.428528841381398</v>
@@ -27632,7 +27404,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.746845483487946</v>
+        <v>1.68462182909585</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.414546637025562</v>
@@ -27721,7 +27493,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.740576875601354</v>
+        <v>1.677781105686731</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.439489142773442</v>
@@ -27810,7 +27582,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.731737124783883</v>
+        <v>1.669662518006213</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.573175239963773</v>
@@ -27899,7 +27671,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.739634779327093</v>
+        <v>1.676816188350733</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.615179768353809</v>
@@ -27988,7 +27760,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.725455129943807</v>
+        <v>1.670399715561624</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.39192749508286</v>
@@ -28077,7 +27849,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.728976608810844</v>
+        <v>1.67261997370262</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.516490810481597</v>
@@ -28166,7 +27938,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.704589225752684</v>
+        <v>1.647352599645346</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.839707667452176</v>
@@ -28255,7 +28027,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.689835737556836</v>
+        <v>1.627336903642899</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.260269591988868</v>
@@ -28344,7 +28116,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.685054292453902</v>
+        <v>1.622442970863793</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.357478322491955</v>
@@ -28433,7 +28205,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.674027376794755</v>
+        <v>1.609074045010378</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.097482292041196</v>
@@ -28522,7 +28294,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.671719376447619</v>
+        <v>1.609332304500859</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.131599657431606</v>
@@ -28611,7 +28383,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.680584474465786</v>
+        <v>1.619707492602678</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.292434666414989</v>
@@ -28700,7 +28472,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.684924056756754</v>
+        <v>1.627755039105023</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.905668113769711</v>
@@ -28789,7 +28561,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.675296532442738</v>
+        <v>1.621144723411117</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.217471193952964</v>
@@ -28878,7 +28650,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.671529815572252</v>
+        <v>1.621880591264427</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.167888655694238</v>
@@ -28967,7 +28739,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.687055177480471</v>
+        <v>1.637686286373177</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.663548382190747</v>
@@ -29056,7 +28828,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.687079302238039</v>
+        <v>1.647395646416872</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.01025733671359</v>
@@ -29145,7 +28917,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.685183349734108</v>
+        <v>1.638361265602011</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.071240947975716</v>
@@ -29234,7 +29006,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.681414642853029</v>
+        <v>1.639435910500093</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.041240140118114</v>
@@ -29323,7 +29095,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.661201864139682</v>
+        <v>1.618894467922529</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.592015875945949</v>
@@ -29412,7 +29184,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.657931794931673</v>
+        <v>1.616780713341313</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.485040316225902</v>
@@ -29501,7 +29273,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.634227529490566</v>
+        <v>1.604715348236026</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.602174808831742</v>
@@ -29590,7 +29362,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.622706436354847</v>
+        <v>1.596367119050303</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.631663159143625</v>
@@ -29679,7 +29451,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.619117206652833</v>
+        <v>1.591503479583749</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.64447699649242</v>
@@ -29768,7 +29540,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.621131036391647</v>
+        <v>1.596571984690905</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.590210760251809</v>
@@ -29857,7 +29629,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.624289639410605</v>
+        <v>1.594529195053354</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.577279498485038</v>
@@ -29946,7 +29718,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.620241695238857</v>
+        <v>1.589854624980213</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.577760163089777</v>
@@ -30232,7 +30004,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.633448562844875</v>
+        <v>1.65532807116778</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.450335120986675</v>
@@ -30321,7 +30093,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.665077656605596</v>
+        <v>1.68466429443542</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.422383749496378</v>
@@ -30410,7 +30182,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.669363586434322</v>
+        <v>1.689402430956133</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.474011614982895</v>
@@ -30499,7 +30271,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.660131929235827</v>
+        <v>1.679738709858648</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.406723037837844</v>
@@ -30588,7 +30360,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.661628275889328</v>
+        <v>1.683295334675004</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.463419591400768</v>
@@ -30677,7 +30449,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.657756943610277</v>
+        <v>1.678985617659509</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.438772974501569</v>
@@ -30766,7 +30538,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.654685118054182</v>
+        <v>1.673963690858261</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.472272854497403</v>
@@ -30855,7 +30627,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.685366747544832</v>
+        <v>1.702179852710128</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.186412069277976</v>
@@ -30944,7 +30716,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.729444580098458</v>
+        <v>1.740518050242596</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.403301010986619</v>
@@ -31033,7 +30805,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.73000022804006</v>
+        <v>1.735375729186943</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.42175071437198</v>
@@ -31122,7 +30894,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.729785993066542</v>
+        <v>1.734886168962827</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.362464917961549</v>
@@ -31211,7 +30983,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.767505344798779</v>
+        <v>1.764237458858064</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.391592883405131</v>
@@ -31300,7 +31072,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.764773071497323</v>
+        <v>1.758853875172834</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.341403740504275</v>
@@ -31389,7 +31161,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.762337351666577</v>
+        <v>1.753561176800293</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.433677018818654</v>
@@ -31478,7 +31250,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.750766350431788</v>
+        <v>1.723167732228513</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.521074434976661</v>
@@ -31567,7 +31339,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.794694047484147</v>
+        <v>1.759866724174705</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.275517249838679</v>
@@ -31656,7 +31428,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.790606482296911</v>
+        <v>1.762307051338507</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.084313232421417</v>
@@ -31745,7 +31517,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.78486722583951</v>
+        <v>1.757674176209701</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.129121391428654</v>
@@ -31834,7 +31606,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.810930438079814</v>
+        <v>1.780612010915566</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.998664954686411</v>
@@ -31923,7 +31695,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.818869260756185</v>
+        <v>1.782857093222619</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.487932536088265</v>
@@ -32012,7 +31784,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.818036058658943</v>
+        <v>1.782044695117384</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.092948123279297</v>
@@ -32101,7 +31873,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.808463540809282</v>
+        <v>1.773890258168733</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.459362506008501</v>
@@ -32190,7 +31962,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.802453961052814</v>
+        <v>1.772798204377115</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.206407152599634</v>
@@ -32279,7 +32051,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.792062626513087</v>
+        <v>1.762640747608964</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.402630528339785</v>
@@ -32368,7 +32140,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.784684404932918</v>
+        <v>1.75961982294451</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.224528226434332</v>
@@ -32457,7 +32229,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.780248417985413</v>
+        <v>1.751896305862338</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.309298319681683</v>
@@ -32546,7 +32318,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.774991092481074</v>
+        <v>1.74475866143962</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.198388967659326</v>
@@ -32635,7 +32407,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.772755244825273</v>
+        <v>1.742176675846693</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.053446814166103</v>
@@ -32724,7 +32496,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.75738274107756</v>
+        <v>1.728425129448467</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.272161776489741</v>
@@ -32813,7 +32585,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.755151513816012</v>
+        <v>1.726766352249613</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.331605978152681</v>
@@ -32902,7 +32674,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.75102258898951</v>
+        <v>1.723959532511838</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.296892444975834</v>
@@ -32991,7 +32763,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.737837368510138</v>
+        <v>1.703068994020289</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.051581231673945</v>
@@ -33080,7 +32852,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.729768453934108</v>
+        <v>1.687867828192397</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.859737199191339</v>
@@ -33169,7 +32941,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.712053276246838</v>
+        <v>1.659978862976554</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.384827499455068</v>
@@ -33258,7 +33030,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.708985419175667</v>
+        <v>1.659536808862146</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.513087446549008</v>
@@ -33347,7 +33119,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.705557055310364</v>
+        <v>1.650194644824675</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.650099041610189</v>
@@ -33436,7 +33208,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.709691171798991</v>
+        <v>1.649588150160829</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.450150461510427</v>
@@ -33525,7 +33297,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.716393014378467</v>
+        <v>1.651586569096854</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.566571872035942</v>
@@ -33614,7 +33386,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.720846060581307</v>
+        <v>1.645007606343171</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.164629822664971</v>
@@ -33703,7 +33475,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.722325532288062</v>
+        <v>1.648561757805552</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.486757853302055</v>
@@ -33792,7 +33564,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.724748343301914</v>
+        <v>1.648040947037398</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.380099454907733</v>
@@ -33881,7 +33653,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.725488984084923</v>
+        <v>1.642460747970034</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.52217596278445</v>
@@ -33970,7 +33742,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.720139598035701</v>
+        <v>1.633282905603901</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.190840632478576</v>
@@ -34059,7 +33831,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.730096311593285</v>
+        <v>1.641982277458455</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.644772032995605</v>
@@ -34148,7 +33920,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.726391207937964</v>
+        <v>1.641423017727579</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.335436053487621</v>
@@ -34237,7 +34009,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.801985636229228</v>
+        <v>1.7211268965986</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.567149213649132</v>
@@ -34326,7 +34098,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.800054875116374</v>
+        <v>1.7392257822388</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.617112843789108</v>
@@ -34415,7 +34187,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.804060368997573</v>
+        <v>1.745610512811587</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.535241948028348</v>
@@ -34504,7 +34276,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.818202548557791</v>
+        <v>1.766150365718504</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.622792178176505</v>
@@ -34593,7 +34365,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.817840178659181</v>
+        <v>1.766363117715224</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.553750143709608</v>
@@ -34682,7 +34454,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.822294713836758</v>
+        <v>1.777511422763906</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.599746212856295</v>
@@ -34771,7 +34543,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.823336522860433</v>
+        <v>1.777551600573198</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.689859169643199</v>
@@ -34860,7 +34632,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.820821914025723</v>
+        <v>1.781444586827785</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.686900859824454</v>
@@ -34949,7 +34721,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.823553274431807</v>
+        <v>1.796985880937287</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.711211941904404</v>
@@ -35038,7 +34810,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.815209980735295</v>
+        <v>1.795114575650743</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.767297519194321</v>
@@ -35127,7 +34899,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.817901045106482</v>
+        <v>1.800376986389657</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.746506118912156</v>
@@ -35216,7 +34988,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.819143472111533</v>
+        <v>1.805696614903222</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.832636586467429</v>
@@ -35305,7 +35077,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.82863969000508</v>
+        <v>1.820016415583793</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.915054400205479</v>
@@ -35394,7 +35166,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.831787737160132</v>
+        <v>1.825752337310073</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.841797052835974</v>
@@ -35483,7 +35255,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.836566247272402</v>
+        <v>1.829696058986545</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.005600407445953</v>
@@ -35572,7 +35344,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.81115581566599</v>
+        <v>1.810446531471382</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.928905529531085</v>
@@ -35661,7 +35433,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.808442875563351</v>
+        <v>1.805372027993688</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.864065571832441</v>
@@ -35750,7 +35522,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.803374579029102</v>
+        <v>1.801534714324436</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.882437164295768</v>
@@ -35839,7 +35611,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.789327631987836</v>
+        <v>1.784811039854559</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.239917429420101</v>
@@ -35928,7 +35700,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.790776725987003</v>
+        <v>1.783463470556844</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.690813555343829</v>
@@ -36017,7 +35789,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.792449033123488</v>
+        <v>1.784153763940778</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.550739911296222</v>
@@ -36106,7 +35878,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.792088421351333</v>
+        <v>1.783347294987044</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.588206922839491</v>
@@ -36195,7 +35967,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.789734403519589</v>
+        <v>1.777804958220771</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.38549539628166</v>
@@ -36284,7 +36056,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.785543051035013</v>
+        <v>1.765284250735436</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.46043073866261</v>
@@ -36373,7 +36145,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.79742692320087</v>
+        <v>1.764950194111219</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.246956449586118</v>
@@ -36462,7 +36234,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.77879583172417</v>
+        <v>1.748210447669307</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.521770131419597</v>
@@ -36551,7 +36323,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.773919837257937</v>
+        <v>1.73621218002196</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.460907135460259</v>
@@ -36640,7 +36412,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.75313067350364</v>
+        <v>1.717185805660681</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.171509158350673</v>
@@ -36729,7 +36501,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.713159766991172</v>
+        <v>1.68246691012109</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.800255571209109</v>
@@ -36818,7 +36590,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.709299887448278</v>
+        <v>1.679659331344217</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.775335770168273</v>
@@ -36907,7 +36679,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.689654432953514</v>
+        <v>1.673804010512369</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.812605289856683</v>
@@ -36996,7 +36768,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.691292154546083</v>
+        <v>1.677654339091334</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.824041359080478</v>
@@ -37085,7 +36857,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.693695017550115</v>
+        <v>1.677549606948739</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.758182752139718</v>
@@ -37174,7 +36946,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.703205567533251</v>
+        <v>1.687525011035245</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.822239568309818</v>
@@ -37263,7 +37035,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.706512414341143</v>
+        <v>1.69502451690707</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.724563927840197</v>
@@ -37352,7 +37124,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.703740851147483</v>
+        <v>1.694812807816691</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.636284714997526</v>
@@ -37638,7 +37410,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.384063787674113</v>
+        <v>1.409366030033037</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.821640693454597</v>
@@ -37727,7 +37499,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.393599455976687</v>
+        <v>1.421373863099401</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.753355302182895</v>
@@ -37816,7 +37588,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.395967965050277</v>
+        <v>1.42180335894145</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.805154125686953</v>
@@ -37905,7 +37677,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.397022681381954</v>
+        <v>1.421646652013302</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.802176106056056</v>
@@ -37994,7 +37766,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.421249232615857</v>
+        <v>1.450972577404701</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.794090057040721</v>
@@ -38083,7 +37855,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.426396275846023</v>
+        <v>1.457264856996375</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.787672170113027</v>
@@ -38172,7 +37944,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.404515848628219</v>
+        <v>1.435134240034298</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.810360704208827</v>
@@ -38261,7 +38033,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.414421052535585</v>
+        <v>1.445484890936549</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.748614108828055</v>
@@ -38350,7 +38122,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.432000334648865</v>
+        <v>1.463763123366942</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.786748301521432</v>
@@ -38439,7 +38211,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.434112928458406</v>
+        <v>1.465680913781626</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.797326615572889</v>
@@ -38528,7 +38300,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.433633145076642</v>
+        <v>1.464296880209851</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.798476723727689</v>
@@ -38617,7 +38389,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.467288560824978</v>
+        <v>1.500337287827759</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.793413486106341</v>
@@ -38706,7 +38478,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.463465048697621</v>
+        <v>1.498010607176604</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.775546281322901</v>
@@ -38795,7 +38567,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.46698541954625</v>
+        <v>1.497682516445993</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.778082114891458</v>
@@ -38884,7 +38656,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.491842174336463</v>
+        <v>1.513129620215874</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.60597258769685</v>
@@ -38973,7 +38745,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.675932318750927</v>
+        <v>1.672508625590771</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.200892937134734</v>
@@ -39062,7 +38834,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.705666182846938</v>
+        <v>1.700269421526639</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.241197586485847</v>
@@ -39151,7 +38923,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.7031432028916</v>
+        <v>1.704651328021441</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.203898419097292</v>
@@ -39240,7 +39012,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.700923864330271</v>
+        <v>1.701304967480621</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.220515244144545</v>
@@ -39329,7 +39101,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.682034820410459</v>
+        <v>1.681061730154717</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.180235806568873</v>
@@ -39418,7 +39190,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.663137237908651</v>
+        <v>1.6635531192617</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.199131770384633</v>
@@ -39507,7 +39279,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.740650609638297</v>
+        <v>1.718937055009441</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.723191710739164</v>
@@ -39596,7 +39368,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.710573541403032</v>
+        <v>1.692256262887796</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.625014479788772</v>
@@ -39685,7 +39457,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.697214366333206</v>
+        <v>1.680731946880902</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.603520788889763</v>
@@ -39774,7 +39546,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.68642690575712</v>
+        <v>1.675137818061391</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.514929201018973</v>
@@ -39863,7 +39635,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.683743343670275</v>
+        <v>1.67089591747811</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.637063229131354</v>
@@ -39952,7 +39724,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.6818821679216</v>
+        <v>1.669381897183745</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.501258982632919</v>
@@ -40041,7 +39813,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.681376296007437</v>
+        <v>1.662796156558516</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.592938172781568</v>
@@ -40130,7 +39902,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.680272521527487</v>
+        <v>1.661473575840886</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.198912651447406</v>
@@ -40219,7 +39991,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.660048438169492</v>
+        <v>1.646732837056939</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.328966916959458</v>
@@ -40308,7 +40080,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.63641517534598</v>
+        <v>1.627117070962101</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.205199718857335</v>
@@ -40397,7 +40169,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.603350034207451</v>
+        <v>1.588956474025554</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.117595358688988</v>
@@ -40486,7 +40258,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.597189140540249</v>
+        <v>1.578059411195664</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.050340439398194</v>
@@ -40575,7 +40347,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.579954648932182</v>
+        <v>1.558318508768119</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.871269539886529</v>
@@ -40664,7 +40436,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.577253890554841</v>
+        <v>1.552471381530088</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.930250327003817</v>
@@ -40753,7 +40525,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.578023591171636</v>
+        <v>1.552240751042027</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.078671878761408</v>
@@ -40842,7 +40614,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.581112390532157</v>
+        <v>1.555442012758681</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.99049605548663</v>
@@ -40931,7 +40703,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.600961248887709</v>
+        <v>1.57208358634051</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.859640806000867</v>
@@ -41020,7 +40792,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.609735981074631</v>
+        <v>1.573651253665271</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.705624698372465</v>
@@ -41109,7 +40881,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.608874043956048</v>
+        <v>1.573145044483534</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.071922621517315</v>
@@ -41198,7 +40970,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.614613988666554</v>
+        <v>1.575020385550417</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.039100359654818</v>
@@ -41287,7 +41059,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.628281427447946</v>
+        <v>1.592917609343214</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.092058392707219</v>
@@ -41376,7 +41148,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.62952502792407</v>
+        <v>1.597559672335465</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.969497318503974</v>
@@ -41465,7 +41237,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.572688916012736</v>
+        <v>1.554241369715476</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.109120971509855</v>
@@ -41554,7 +41326,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.631135910801443</v>
+        <v>1.603344857267133</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.119565046396009</v>
@@ -41643,7 +41415,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.721526212642764</v>
+        <v>1.708590013601744</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.148395932807984</v>
@@ -41732,7 +41504,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.729541967937518</v>
+        <v>1.728251915480606</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.164546320717257</v>
@@ -41821,7 +41593,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.700094836766592</v>
+        <v>1.704164249777434</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.124443097598876</v>
@@ -41910,7 +41682,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.69465968011301</v>
+        <v>1.704326477670184</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.145605553526146</v>
@@ -41999,7 +41771,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.69133996918335</v>
+        <v>1.701796444682245</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.151701942957652</v>
@@ -42088,7 +41860,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.691166107602227</v>
+        <v>1.698849879181837</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.158649353137323</v>
@@ -42177,7 +41949,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.694228027417975</v>
+        <v>1.701671601847716</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.168332258472255</v>
@@ -42266,7 +42038,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.692142143034663</v>
+        <v>1.698297551350677</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.148959005432705</v>
@@ -42355,7 +42127,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.685596862195234</v>
+        <v>1.695365622792635</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.154228589659929</v>
@@ -42444,7 +42216,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.628626143075524</v>
+        <v>1.637534265018432</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.205136980708352</v>
@@ -42533,7 +42305,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.601909704050616</v>
+        <v>1.620901890941006</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.193977255310527</v>
@@ -42622,7 +42394,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.592656691287153</v>
+        <v>1.611096945943852</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.152024410200256</v>
@@ -42711,7 +42483,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.587476894137062</v>
+        <v>1.605205065460641</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.151027396269853</v>
@@ -42800,7 +42572,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.549264395300652</v>
+        <v>1.563661124655224</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.216432583298139</v>
@@ -42889,7 +42661,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.516637370595231</v>
+        <v>1.533741695876053</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.07427342301466</v>
@@ -42978,7 +42750,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.402635334091976</v>
+        <v>1.402562505721073</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.016786600047664</v>
@@ -43067,7 +42839,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.360817111656393</v>
+        <v>1.346484973689922</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.996743699742517</v>
@@ -43156,7 +42928,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.374348664165985</v>
+        <v>1.361581819995074</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.91577717222205</v>
@@ -43245,7 +43017,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.372857740490953</v>
+        <v>1.35807250620091</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.934583616831458</v>
@@ -43334,7 +43106,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.373316343395302</v>
+        <v>1.361018639754845</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.876254316867596</v>
@@ -43423,7 +43195,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.375196584731975</v>
+        <v>1.365015825057036</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.89894667233973</v>
@@ -43512,7 +43284,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.373933351613435</v>
+        <v>1.36300844016925</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.895916576822852</v>
@@ -43601,7 +43373,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.375994575459965</v>
+        <v>1.368026962629331</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.865771987108637</v>
@@ -43690,7 +43462,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.373977079395236</v>
+        <v>1.363453400160001</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.902251131473056</v>
@@ -43779,7 +43551,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.453758820805789</v>
+        <v>1.439644317439611</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.959112486086053</v>
@@ -43868,7 +43640,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.462093519440833</v>
+        <v>1.450952498258387</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.813089548983442</v>
@@ -43957,7 +43729,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.458646815829562</v>
+        <v>1.446793186745303</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.804517969022149</v>
@@ -44046,7 +43818,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.500543163782366</v>
+        <v>1.480837176172278</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.900480604948564</v>
@@ -44135,7 +43907,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.539549200573947</v>
+        <v>1.529236203907292</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.025248427490336</v>
@@ -44224,7 +43996,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.542161268556442</v>
+        <v>1.532322176953802</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.957675396095611</v>
@@ -44313,7 +44085,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.471874934849109</v>
+        <v>1.465383742492204</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.964050934542845</v>
@@ -44402,7 +44174,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.460927494194815</v>
+        <v>1.460353899742166</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.920269834731673</v>
@@ -44491,7 +44263,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.464604386952154</v>
+        <v>1.463261003169347</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.925857896278264</v>
@@ -44580,7 +44352,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.468862171446025</v>
+        <v>1.461290411018436</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.902047111439445</v>
@@ -44669,7 +44441,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.47161522430122</v>
+        <v>1.459142117551015</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.912063854062391</v>
@@ -44758,7 +44530,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.465828233030463</v>
+        <v>1.456660005517805</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.926486578606512</v>
@@ -45044,7 +44816,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.289614919346654</v>
+        <v>1.294146116892881</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.750799042426225</v>
@@ -45133,7 +44905,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.313615590089175</v>
+        <v>1.326274778293323</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.695647146535588</v>
@@ -45222,7 +44994,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.323672703991005</v>
+        <v>1.336542992527817</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.719466229542473</v>
@@ -45311,7 +45083,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.324384381819337</v>
+        <v>1.338601225830874</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.706709450740034</v>
@@ -45400,7 +45172,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.332908666767036</v>
+        <v>1.349659020516665</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.70148161555637</v>
@@ -45489,7 +45261,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.327910950919682</v>
+        <v>1.342285113944696</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.709164617951344</v>
@@ -45578,7 +45350,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.329000873777989</v>
+        <v>1.342712886930024</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.697292373934134</v>
@@ -45667,7 +45439,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.378004797055795</v>
+        <v>1.394679126841631</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.528004362288978</v>
@@ -45756,7 +45528,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.479874027808534</v>
+        <v>1.503767266539417</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.925140625736536</v>
@@ -45845,7 +45617,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.483101340820661</v>
+        <v>1.508075066216603</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.91583358633735</v>
@@ -45934,7 +45706,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.482715381856441</v>
+        <v>1.508848929371583</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.92156693161</v>
@@ -46023,7 +45795,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.60414769842733</v>
+        <v>1.634498038247752</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.012523425283216</v>
@@ -46112,7 +45884,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.600390448458633</v>
+        <v>1.631403940190037</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.040355177341846</v>
@@ -46201,7 +45973,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.598638871163788</v>
+        <v>1.626628755376218</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.994553830655514</v>
@@ -46290,7 +46062,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.610116773736997</v>
+        <v>1.638739347338929</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.960242276280917</v>
@@ -46379,7 +46151,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.687572324611612</v>
+        <v>1.726842346428173</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.384050468042739</v>
@@ -46468,7 +46240,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.71281027753858</v>
+        <v>1.744292567587461</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.350516034942566</v>
@@ -46557,7 +46329,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.673530017614912</v>
+        <v>1.709667654334942</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.32365408797665</v>
@@ -46646,7 +46418,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.684864700955106</v>
+        <v>1.718934789372314</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.261060976783897</v>
@@ -46735,7 +46507,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.734123682450763</v>
+        <v>1.764404059588918</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.355710377281366</v>
@@ -46824,7 +46596,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.699298840782158</v>
+        <v>1.734981765795312</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.297548923148078</v>
@@ -46913,7 +46685,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.698601827839768</v>
+        <v>1.736159938127217</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.34905268025203</v>
@@ -47002,7 +46774,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.693328077822145</v>
+        <v>1.72909202100953</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.277604454724312</v>
@@ -47091,7 +46863,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.657461932112294</v>
+        <v>1.693561757811189</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.334198132719286</v>
@@ -47180,7 +46952,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.65129008625551</v>
+        <v>1.687119629036792</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.149304293588163</v>
@@ -47269,7 +47041,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.667559683340285</v>
+        <v>1.703744424965201</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.25161095364991</v>
@@ -47358,7 +47130,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.65083667508411</v>
+        <v>1.685819342549772</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.288523366442822</v>
@@ -47447,7 +47219,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.632138899317097</v>
+        <v>1.674396002675021</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.300281255298353</v>
@@ -47536,7 +47308,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.631710336600707</v>
+        <v>1.676226312577454</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.29508113969076</v>
@@ -47625,7 +47397,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.629041070643587</v>
+        <v>1.672258477967168</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.356291951023405</v>
@@ -47714,7 +47486,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.683457334756066</v>
+        <v>1.724789726692508</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.752162838609032</v>
@@ -47803,7 +47575,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.653599374755543</v>
+        <v>1.695144887809102</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.413763743865958</v>
@@ -47892,7 +47664,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.675054940290476</v>
+        <v>1.701869624069893</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.510207466904661</v>
@@ -47981,7 +47753,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.651665140259686</v>
+        <v>1.680397533341332</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.694104872574175</v>
@@ -48070,7 +47842,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.63944160455106</v>
+        <v>1.667019917698646</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.628373781252415</v>
@@ -48159,7 +47931,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.661881618592101</v>
+        <v>1.682034474693127</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.449557976681219</v>
@@ -48248,7 +48020,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.61719651901012</v>
+        <v>1.636935512651103</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.486787849900224</v>
@@ -48337,7 +48109,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.617926250747153</v>
+        <v>1.639172343734625</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.485265369465494</v>
@@ -48426,7 +48198,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.64763850786705</v>
+        <v>1.664092369646781</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.388977350254434</v>
@@ -48515,7 +48287,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.6462578283778</v>
+        <v>1.664287821498845</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.40773710440914</v>
@@ -48604,7 +48376,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.637129428402751</v>
+        <v>1.652331055830114</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.417142945808334</v>
@@ -48693,7 +48465,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.631146573766564</v>
+        <v>1.642204332217427</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.646897042506104</v>
@@ -48782,7 +48554,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.620078536938605</v>
+        <v>1.628383955771068</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.450241752404941</v>
@@ -48871,7 +48643,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.611594502375738</v>
+        <v>1.614050544623893</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.38554107664288</v>
@@ -48960,7 +48732,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.546739642392776</v>
+        <v>1.549875221828564</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.355744696387204</v>
@@ -49049,7 +48821,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.545244359903485</v>
+        <v>1.547712047832244</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.540544330874457</v>
@@ -49138,7 +48910,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.540913774039673</v>
+        <v>1.554885912992446</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.603125659869568</v>
@@ -49227,7 +48999,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.541033166401612</v>
+        <v>1.565041946391224</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.481288311395514</v>
@@ -49316,7 +49088,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.518023047450241</v>
+        <v>1.554182801486567</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.615116498514073</v>
@@ -49405,7 +49177,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.50912293055107</v>
+        <v>1.55355861297783</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.559578946412367</v>
@@ -49494,7 +49266,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.521279002960258</v>
+        <v>1.568135643685405</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.729832562054427</v>
@@ -49583,7 +49355,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.554734822402567</v>
+        <v>1.606703518872428</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.77362351531516</v>
@@ -49672,7 +49444,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.534008570857433</v>
+        <v>1.589512969878874</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.511595987367145</v>
@@ -49761,7 +49533,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.505441860890289</v>
+        <v>1.569022648727788</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.524764502845234</v>
@@ -49850,7 +49622,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.469236715626914</v>
+        <v>1.510657106611396</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.283945402417203</v>
@@ -49939,7 +49711,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.471605304980621</v>
+        <v>1.52032437364667</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.46352560217149</v>
@@ -50028,7 +49800,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.478799474916883</v>
+        <v>1.53101202751789</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.367163923875089</v>
@@ -50117,7 +49889,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.493719491631679</v>
+        <v>1.548097737641473</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.407955616167046</v>
@@ -50206,7 +49978,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.454744667486079</v>
+        <v>1.505422538396166</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.5956315275853</v>
@@ -50295,7 +50067,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.479354079074289</v>
+        <v>1.532623397831885</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.38007795188786</v>
@@ -50384,7 +50156,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.476711924557722</v>
+        <v>1.531977624290653</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.529657268091882</v>
@@ -50473,7 +50245,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.488359474455732</v>
+        <v>1.542017850974612</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.338972999996581</v>
@@ -50562,7 +50334,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.498209918136183</v>
+        <v>1.549654328581495</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.425085474835644</v>
@@ -50651,7 +50423,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.507632853425299</v>
+        <v>1.550083475678849</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.296806072909019</v>
@@ -50740,7 +50512,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.508920655708806</v>
+        <v>1.551363583779932</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.407485974975747</v>
@@ -50829,7 +50601,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.508921611763112</v>
+        <v>1.552294015903534</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.386932174131272</v>
@@ -50918,7 +50690,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.504194050466436</v>
+        <v>1.546713559294662</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.349758639434058</v>
@@ -51007,7 +50779,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.534335564425704</v>
+        <v>1.569700700845681</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.231965368063373</v>
@@ -51096,7 +50868,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.533285355158382</v>
+        <v>1.564683157503321</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.35780466472126</v>
@@ -51185,7 +50957,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.606474480479597</v>
+        <v>1.645957557209418</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.029230590716467</v>
@@ -51274,7 +51046,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.565035860406313</v>
+        <v>1.606136882571225</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.174378724852644</v>
@@ -51363,7 +51135,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.574250729204661</v>
+        <v>1.612462795419155</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.13953483053453</v>
@@ -51452,7 +51224,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.56928142182527</v>
+        <v>1.605633972645874</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.009438440970291</v>
@@ -51541,7 +51313,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.560629106507509</v>
+        <v>1.58902843405059</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.898582204979584</v>
@@ -51630,7 +51402,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.538662986965736</v>
+        <v>1.56772737672212</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.936648882198207</v>
@@ -51719,7 +51491,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.527120008301666</v>
+        <v>1.545416746111561</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.000274784626424</v>
@@ -51808,7 +51580,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.510717317372725</v>
+        <v>1.539535761377546</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.013960932898972</v>
@@ -51897,7 +51669,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.510707730092423</v>
+        <v>1.539988362637413</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.00580093081359</v>
@@ -51986,7 +51758,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.524103201258558</v>
+        <v>1.554888208367492</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.046288207128387</v>
@@ -52075,7 +51847,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.515139493034326</v>
+        <v>1.546933941780089</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.998330608332939</v>
@@ -52164,7 +51936,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.491533556791108</v>
+        <v>1.522610230413467</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.00621467695815</v>
